--- a/output/boxplot_historic_table.xlsx
+++ b/output/boxplot_historic_table.xlsx
@@ -816,7 +816,7 @@
         <v>1.80734693877551</v>
       </c>
       <c r="K8" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9">
@@ -863,7 +863,7 @@
         <v>0.6286907536907538</v>
       </c>
       <c r="K9" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">t / cap /year </t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1051,7 +1051,7 @@
         <v>0.71875</v>
       </c>
       <c r="K13" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14">
@@ -1145,7 +1145,7 @@
         <v>0.8823529411764705</v>
       </c>
       <c r="K15" t="n">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="16">
@@ -1380,7 +1380,7 @@
         <v>0.5588235294117647</v>
       </c>
       <c r="K20" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21">
@@ -1474,7 +1474,7 @@
         <v>0.5945945945945946</v>
       </c>
       <c r="K22" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23">
@@ -1850,7 +1850,7 @@
         <v>0.6289256198347107</v>
       </c>
       <c r="K30" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="31">
@@ -1897,7 +1897,7 @@
         <v>0.860576923076923</v>
       </c>
       <c r="K31" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32">
@@ -2085,7 +2085,7 @@
         <v>0.9336609119860264</v>
       </c>
       <c r="K35" t="n">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="36">
@@ -2363,7 +2363,7 @@
         <v>0.8442108619231682</v>
       </c>
       <c r="K41" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="42">
@@ -2504,7 +2504,7 @@
         <v>0.8047239535282148</v>
       </c>
       <c r="K44" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45">
@@ -2645,7 +2645,7 @@
         <v>0.5020961350714983</v>
       </c>
       <c r="K47" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="48">
@@ -2786,7 +2786,7 @@
         <v>1.315670172048605</v>
       </c>
       <c r="K50" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="51">
@@ -2974,7 +2974,7 @@
         <v>0.9254600334423496</v>
       </c>
       <c r="K54" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="55">
@@ -3162,7 +3162,7 @@
         <v>0.7931039568977193</v>
       </c>
       <c r="K58" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="59">
@@ -3393,7 +3393,7 @@
         <v>1.038808212318478</v>
       </c>
       <c r="K63" t="n">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="64">
@@ -3487,7 +3487,7 @@
         <v>0.9582132564841499</v>
       </c>
       <c r="K65" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="66">
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69">
@@ -3675,7 +3675,7 @@
         <v>0.2491295645471589</v>
       </c>
       <c r="K69" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="70">
@@ -3722,7 +3722,7 @@
         <v>9.966818162302734e-05</v>
       </c>
       <c r="K70" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="71">
@@ -3769,7 +3769,7 @@
         <v>0.5</v>
       </c>
       <c r="K71" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="72">

--- a/output/boxplot_historic_table.xlsx
+++ b/output/boxplot_historic_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2044,22 +2044,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2076,32 +2076,32 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>5291.85</v>
+        <v>1525</v>
       </c>
       <c r="I35" t="n">
-        <v>5667.85</v>
+        <v>2900.63</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9336609119860264</v>
+        <v>0.5257478547763762</v>
       </c>
       <c r="K35" t="n">
-        <v>561</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2123,37 +2123,37 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>5434.78</v>
+        <v>5291.85</v>
       </c>
       <c r="I36" t="n">
-        <v>5091.46</v>
+        <v>5667.85</v>
       </c>
       <c r="J36" t="n">
-        <v>1.067430560192951</v>
+        <v>0.9336609119860264</v>
       </c>
       <c r="K36" t="n">
-        <v>283</v>
+        <v>561</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2170,42 +2170,42 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>8122.17</v>
+        <v>5434.78</v>
       </c>
       <c r="I37" t="n">
-        <v>8322.120000000001</v>
+        <v>5091.46</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9759736701705815</v>
+        <v>1.067430560192951</v>
       </c>
       <c r="K37" t="n">
-        <v>132</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -2213,39 +2213,43 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>5947</v>
+        <v>8122.17</v>
       </c>
       <c r="I38" t="n">
-        <v>13007.23</v>
+        <v>8322.120000000001</v>
       </c>
       <c r="J38" t="n">
-        <v>0.4572072608849079</v>
+        <v>0.9759736701705815</v>
       </c>
       <c r="K38" t="n">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>based on LED</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>S1: Low production</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Transport</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>average distance travelled per capita and year | car</t>
@@ -2260,39 +2264,35 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>8434.379999999999</v>
+        <v>5947</v>
       </c>
       <c r="I39" t="n">
-        <v>11890.63</v>
+        <v>13007.23</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7093299513987064</v>
+        <v>0.4572072608849079</v>
       </c>
       <c r="K39" t="n">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2050</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Mobility</t>
-        </is>
-      </c>
+          <t>based on LED</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>average distance travelled per capita and year | car</t>
@@ -2307,37 +2307,37 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>7350</v>
+        <v>8434.379999999999</v>
       </c>
       <c r="I40" t="n">
-        <v>13007.23</v>
+        <v>11890.63</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5650703493364844</v>
+        <v>0.7093299513987064</v>
       </c>
       <c r="K40" t="n">
-        <v>26</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2354,22 +2354,22 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>9214.57</v>
+        <v>6240</v>
       </c>
       <c r="I41" t="n">
-        <v>10915.01</v>
+        <v>12972.26</v>
       </c>
       <c r="J41" t="n">
-        <v>0.8442108619231682</v>
+        <v>0.4810264364112344</v>
       </c>
       <c r="K41" t="n">
-        <v>556</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2379,12 +2379,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2401,37 +2401,37 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>7140.85</v>
+        <v>7350</v>
       </c>
       <c r="I42" t="n">
         <v>13007.23</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5489908304842769</v>
+        <v>0.5650703493364844</v>
       </c>
       <c r="K42" t="n">
-        <v>282</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2448,37 +2448,37 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>6731</v>
+        <v>9214.57</v>
       </c>
       <c r="I43" t="n">
-        <v>11890.63</v>
+        <v>10915.01</v>
       </c>
       <c r="J43" t="n">
-        <v>0.5660759774713368</v>
+        <v>0.8442108619231682</v>
       </c>
       <c r="K43" t="n">
-        <v>98</v>
+        <v>556</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>van de Ven et al. (2018)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Enthusiastic profile</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mobility | Car</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2495,42 +2495,42 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>8783.57</v>
+        <v>7140.85</v>
       </c>
       <c r="I44" t="n">
-        <v>10915.01</v>
+        <v>13007.23</v>
       </c>
       <c r="J44" t="n">
-        <v>0.8047239535282148</v>
+        <v>0.5489908304842769</v>
       </c>
       <c r="K44" t="n">
-        <v>372</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2542,42 +2542,42 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1423.5</v>
+        <v>6731</v>
       </c>
       <c r="I45" t="n">
-        <v>3019.91</v>
+        <v>11890.63</v>
       </c>
       <c r="J45" t="n">
-        <v>0.4713716633939422</v>
+        <v>0.5660759774713368</v>
       </c>
       <c r="K45" t="n">
-        <v>144</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>van de Ven et al. (2018)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Enthusiastic profile</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Mobility | Car</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2589,32 +2589,32 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1200</v>
+        <v>8783.57</v>
       </c>
       <c r="I46" t="n">
-        <v>3019.91</v>
+        <v>10915.01</v>
       </c>
       <c r="J46" t="n">
-        <v>0.3973628353162843</v>
+        <v>0.8047239535282148</v>
       </c>
       <c r="K46" t="n">
-        <v>23</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1486.31</v>
+        <v>1423.5</v>
       </c>
       <c r="I47" t="n">
-        <v>2960.21</v>
+        <v>3019.91</v>
       </c>
       <c r="J47" t="n">
-        <v>0.5020961350714983</v>
+        <v>0.4713716633939422</v>
       </c>
       <c r="K47" t="n">
-        <v>558</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2661,12 +2661,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2683,37 +2683,37 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>67.75</v>
+        <v>1200</v>
       </c>
       <c r="I48" t="n">
         <v>3019.91</v>
       </c>
       <c r="J48" t="n">
-        <v>0.02243444341056522</v>
+        <v>0.3973628353162843</v>
       </c>
       <c r="K48" t="n">
-        <v>271</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2730,37 +2730,37 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>2681.43</v>
+        <v>1486.31</v>
       </c>
       <c r="I49" t="n">
-        <v>2177.88</v>
+        <v>2960.21</v>
       </c>
       <c r="J49" t="n">
-        <v>1.231211086010248</v>
+        <v>0.5020961350714983</v>
       </c>
       <c r="K49" t="n">
-        <v>105</v>
+        <v>558</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>van de Ven et al. (2018)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Enthusiastic profile</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mobility | Plane</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2777,42 +2777,42 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>3894.66</v>
+        <v>67.75</v>
       </c>
       <c r="I50" t="n">
-        <v>2960.21</v>
+        <v>3019.91</v>
       </c>
       <c r="J50" t="n">
-        <v>1.315670172048605</v>
+        <v>0.02243444341056522</v>
       </c>
       <c r="K50" t="n">
-        <v>374</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2824,42 +2824,42 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>10672</v>
+        <v>2681.43</v>
       </c>
       <c r="I51" t="n">
-        <v>18101.66</v>
+        <v>2177.88</v>
       </c>
       <c r="J51" t="n">
-        <v>0.589559189599186</v>
+        <v>1.231211086010248</v>
       </c>
       <c r="K51" t="n">
-        <v>148</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>van de Ven et al. (2018)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>Enthusiastic profile</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility | Plane</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2871,22 +2871,22 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>12081.5</v>
+        <v>3894.66</v>
       </c>
       <c r="I52" t="n">
-        <v>18101.66</v>
+        <v>2960.21</v>
       </c>
       <c r="J52" t="n">
-        <v>0.6674249764938686</v>
+        <v>1.315670172048605</v>
       </c>
       <c r="K52" t="n">
-        <v>149</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2896,12 +2896,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2918,32 +2918,32 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>14500</v>
+        <v>10672</v>
       </c>
       <c r="I53" t="n">
         <v>18101.66</v>
       </c>
       <c r="J53" t="n">
-        <v>0.8010315076075896</v>
+        <v>0.589559189599186</v>
       </c>
       <c r="K53" t="n">
-        <v>25</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2965,37 +2965,37 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>13803.44</v>
+        <v>12081.5</v>
       </c>
       <c r="I54" t="n">
-        <v>14915.22</v>
+        <v>18101.66</v>
       </c>
       <c r="J54" t="n">
-        <v>0.9254600334423496</v>
+        <v>0.6674249764938686</v>
       </c>
       <c r="K54" t="n">
-        <v>554</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3012,32 +3012,32 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>13550</v>
+        <v>12000</v>
       </c>
       <c r="I55" t="n">
-        <v>18101.66</v>
+        <v>19095.81</v>
       </c>
       <c r="J55" t="n">
-        <v>0.7485501329712303</v>
+        <v>0.6284101067197463</v>
       </c>
       <c r="K55" t="n">
-        <v>281</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3059,37 +3059,37 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>13337.6</v>
+        <v>14500</v>
       </c>
       <c r="I56" t="n">
-        <v>16412.26</v>
+        <v>18101.66</v>
       </c>
       <c r="J56" t="n">
-        <v>0.8126607791979898</v>
+        <v>0.8010315076075896</v>
       </c>
       <c r="K56" t="n">
-        <v>91</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3106,37 +3106,37 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>16019.03</v>
+        <v>13803.44</v>
       </c>
       <c r="I57" t="n">
-        <v>16412.26</v>
+        <v>14915.22</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9760404721835995</v>
+        <v>0.9254600334423496</v>
       </c>
       <c r="K57" t="n">
-        <v>92</v>
+        <v>554</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>van de Ven et al. (2018)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Enthusiastic profile</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3153,42 +3153,42 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>11829.32</v>
+        <v>13550</v>
       </c>
       <c r="I58" t="n">
-        <v>14915.22</v>
+        <v>18101.66</v>
       </c>
       <c r="J58" t="n">
-        <v>0.7931039568977193</v>
+        <v>0.7485501329712303</v>
       </c>
       <c r="K58" t="n">
-        <v>366</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3196,26 +3196,26 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>48</v>
+        <v>13337.6</v>
       </c>
       <c r="I59" t="n">
-        <v>41.7</v>
+        <v>16412.26</v>
       </c>
       <c r="J59" t="n">
-        <v>1.151079136690647</v>
+        <v>0.8126607791979898</v>
       </c>
       <c r="K59" t="n">
-        <v>178</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3225,17 +3225,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3243,42 +3243,46 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>m^2/person</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>30</v>
+        <v>16019.03</v>
       </c>
       <c r="I60" t="n">
-        <v>45.4</v>
+        <v>16412.26</v>
       </c>
       <c r="J60" t="n">
-        <v>0.6607929515418502</v>
+        <v>0.9760404721835995</v>
       </c>
       <c r="K60" t="n">
-        <v>196</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>van de Ven et al. (2018)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>based on LED</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>Enthusiastic profile</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Mobility</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3286,26 +3290,26 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>32</v>
+        <v>11829.32</v>
       </c>
       <c r="I61" t="n">
-        <v>45.4</v>
+        <v>14915.22</v>
       </c>
       <c r="J61" t="n">
-        <v>0.7048458149779736</v>
+        <v>0.7931039568977193</v>
       </c>
       <c r="K61" t="n">
-        <v>83</v>
+        <v>366</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3315,7 +3319,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3337,32 +3341,32 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>39.47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="n">
         <v>41.7</v>
       </c>
       <c r="J62" t="n">
-        <v>0.9465227817745803</v>
+        <v>1.151079136690647</v>
       </c>
       <c r="K62" t="n">
-        <v>35</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3380,26 +3384,26 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m^2/person</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>41.49</v>
+        <v>30</v>
       </c>
       <c r="I63" t="n">
-        <v>39.94</v>
+        <v>45.4</v>
       </c>
       <c r="J63" t="n">
-        <v>1.038808212318478</v>
+        <v>0.6607929515418502</v>
       </c>
       <c r="K63" t="n">
-        <v>552</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3409,14 +3413,10 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Buildings</t>
-        </is>
-      </c>
+          <t>based on LED</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>living space per capita</t>
@@ -3431,42 +3431,42 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>41.17</v>
+        <v>32</v>
       </c>
       <c r="I64" t="n">
         <v>45.4</v>
       </c>
       <c r="J64" t="n">
-        <v>0.9068281938325992</v>
+        <v>0.7048458149779736</v>
       </c>
       <c r="K64" t="n">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3474,46 +3474,46 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>332.5</v>
+        <v>43.43</v>
       </c>
       <c r="I65" t="n">
-        <v>347</v>
+        <v>44.8</v>
       </c>
       <c r="J65" t="n">
-        <v>0.9582132564841499</v>
+        <v>0.9694196428571429</v>
       </c>
       <c r="K65" t="n">
-        <v>563</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Agriculture</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3521,46 +3521,46 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>g/cap/day</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>42.86</v>
+        <v>39.47</v>
       </c>
       <c r="I66" t="n">
-        <v>305.2</v>
+        <v>41.7</v>
       </c>
       <c r="J66" t="n">
-        <v>0.14043250327654</v>
+        <v>0.9465227817745803</v>
       </c>
       <c r="K66" t="n">
-        <v>127</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Agriculture</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3568,46 +3568,46 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>107.14</v>
+        <v>41.49</v>
       </c>
       <c r="I67" t="n">
-        <v>305.2</v>
+        <v>39.94</v>
       </c>
       <c r="J67" t="n">
-        <v>0.3510484927916121</v>
+        <v>1.038808212318478</v>
       </c>
       <c r="K67" t="n">
-        <v>128</v>
+        <v>552</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>van de Ven et al. (2018)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Enthusiastic profile</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3615,20 +3615,20 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>kcal/cap/day</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>41.17</v>
       </c>
       <c r="I68" t="n">
-        <v>347</v>
+        <v>45.4</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>0.9068281938325992</v>
       </c>
       <c r="K68" t="n">
-        <v>355</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69">
@@ -3662,36 +3662,36 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>kcal / year / cap</t>
+          <t>kg/cap/year</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>48742</v>
+        <v>19.5</v>
       </c>
       <c r="I69" t="n">
-        <v>195649.2</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="J69" t="n">
-        <v>0.2491295645471589</v>
+        <v>0.2491694352159468</v>
       </c>
       <c r="K69" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3713,37 +3713,37 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>19.5</v>
+        <v>65.5</v>
       </c>
       <c r="I70" t="n">
-        <v>195649.2</v>
+        <v>131</v>
       </c>
       <c r="J70" t="n">
-        <v>9.966818162302734e-05</v>
+        <v>0.5</v>
       </c>
       <c r="K70" t="n">
-        <v>323</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>all</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3760,62 +3760,15 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>65.5</v>
+        <v>55.63</v>
       </c>
       <c r="I71" t="n">
-        <v>131</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="J71" t="n">
-        <v>0.5</v>
+        <v>0.7416344487401679</v>
       </c>
       <c r="K71" t="n">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>UBA (2020)</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>GreenSupreme</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>food waste per capita and year</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>kg/cap/year</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>55.63</v>
-      </c>
-      <c r="I72" t="n">
-        <v>187518.7</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.0002966637460690587</v>
-      </c>
-      <c r="K72" t="n">
         <v>130</v>
       </c>
     </row>

--- a/output/boxplot_historic_table.xlsx
+++ b/output/boxplot_historic_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -528,13 +528,13 @@
         <v>41.32</v>
       </c>
       <c r="I2" t="n">
-        <v>24.2</v>
+        <v>87.12</v>
       </c>
       <c r="J2" t="n">
-        <v>1.707438016528926</v>
+        <v>0.4742883379247015</v>
       </c>
       <c r="K2" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3">
@@ -581,23 +581,23 @@
         <v>0.5213270142180095</v>
       </c>
       <c r="K3" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>CTI 2050 Roadmap Tool (2018)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>36.79</v>
+        <v>38.83</v>
       </c>
       <c r="I4" t="n">
-        <v>74.36</v>
+        <v>86.61</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4947552447552447</v>
+        <v>0.4483316014317053</v>
       </c>
       <c r="K4" t="n">
-        <v>302</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5">
@@ -675,7 +675,7 @@
         <v>0.4759129759129759</v>
       </c>
       <c r="K5" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6">
@@ -696,7 +696,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -716,10 +716,10 @@
         <v>59</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="J6" t="n">
-        <v>2.36</v>
+        <v>0.6555555555555556</v>
       </c>
       <c r="K6" t="n">
         <v>16</v>
@@ -763,13 +763,13 @@
         <v>48.15</v>
       </c>
       <c r="I7" t="n">
-        <v>24.2</v>
+        <v>87.12</v>
       </c>
       <c r="J7" t="n">
-        <v>1.989669421487603</v>
+        <v>0.5526859504132231</v>
       </c>
       <c r="K7" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -790,7 +790,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -810,19 +810,19 @@
         <v>44.28</v>
       </c>
       <c r="I8" t="n">
-        <v>24.5</v>
+        <v>88.2</v>
       </c>
       <c r="J8" t="n">
-        <v>1.80734693877551</v>
+        <v>0.5020408163265306</v>
       </c>
       <c r="K8" t="n">
-        <v>547</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ragwitz et al. (2023)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -832,12 +832,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nachfragereduktion</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -854,42 +854,42 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>64.73</v>
+        <v>68.39</v>
       </c>
       <c r="I9" t="n">
         <v>102.96</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6286907536907538</v>
+        <v>0.6642385392385393</v>
       </c>
       <c r="K9" t="n">
-        <v>415</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year</t>
+          <t>steel production per capita and year</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -897,36 +897,36 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>68.39</v>
+        <v>0.08</v>
       </c>
       <c r="I10" t="n">
-        <v>102.96</v>
+        <v>0.22</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6642385392385393</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="K10" t="n">
-        <v>89</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>Barrett et al. (2022)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>Transform</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -948,32 +948,32 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="K11" t="n">
-        <v>170</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Barrett et al. (2022)</t>
+          <t>CTI 2050 Roadmap Tool (2018)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Transform</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -995,32 +995,32 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="K12" t="n">
-        <v>213</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1042,32 +1042,32 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="I13" t="n">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="J13" t="n">
-        <v>0.71875</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="K13" t="n">
-        <v>342</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1089,32 +1089,32 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="I14" t="n">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.8823529411764705</v>
       </c>
       <c r="K14" t="n">
-        <v>47</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1136,32 +1136,32 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.3</v>
+        <v>0.18</v>
       </c>
       <c r="I15" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8823529411764705</v>
+        <v>0.8181818181818181</v>
       </c>
       <c r="K15" t="n">
-        <v>569</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1183,32 +1183,32 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.18</v>
+        <v>0.44</v>
       </c>
       <c r="I16" t="n">
-        <v>0.22</v>
+        <v>0.48</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8181818181818181</v>
+        <v>0.9166666666666667</v>
       </c>
       <c r="K16" t="n">
-        <v>287</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>steel production per capita and year</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1230,32 +1230,32 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.44</v>
+        <v>0.06</v>
       </c>
       <c r="I17" t="n">
-        <v>0.48</v>
+        <v>0.26</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9166666666666667</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K17" t="n">
-        <v>119</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>Barrett et al. (2022)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>Transform</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1277,32 +1277,32 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I18" t="n">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K18" t="n">
-        <v>174</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Barrett et al. (2022)</t>
+          <t>CTI 2050 Roadmap Tool (2018)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Transform</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>0.14</v>
+        <v>0.34</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="K19" t="n">
-        <v>217</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1371,32 +1371,32 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="I20" t="n">
-        <v>0.34</v>
+        <v>0.66</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5588235294117647</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="K20" t="n">
-        <v>337</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1418,32 +1418,32 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="I21" t="n">
-        <v>0.66</v>
+        <v>0.37</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="K21" t="n">
-        <v>21</v>
+        <v>508</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1465,32 +1465,32 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="I22" t="n">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5945945945945946</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="K22" t="n">
-        <v>567</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1512,32 +1512,32 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="I23" t="n">
-        <v>0.26</v>
+        <v>0.41</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4615384615384615</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="K23" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1555,36 +1555,36 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.22</v>
+        <v>14.46</v>
       </c>
       <c r="I24" t="n">
-        <v>0.41</v>
+        <v>19.99</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5365853658536586</v>
+        <v>0.7233616808404203</v>
       </c>
       <c r="K24" t="n">
-        <v>124</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>Barrett et al. (2022)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>Transform</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1602,36 +1602,36 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>GJ/person/year</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>14.46</v>
+        <v>13.1</v>
       </c>
       <c r="I25" t="n">
-        <v>19.99</v>
+        <v>13.09</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7233616808404203</v>
+        <v>1.000763941940412</v>
       </c>
       <c r="K25" t="n">
-        <v>185</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Barrett et al. (2022)</t>
+          <t>CTI 2050 Roadmap Tool (2018)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Transform</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1649,36 +1649,36 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>GJ/person/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>13.1</v>
+        <v>8.81</v>
       </c>
       <c r="I26" t="n">
-        <v>13.09</v>
+        <v>22.75</v>
       </c>
       <c r="J26" t="n">
-        <v>1.000763941940412</v>
+        <v>0.3872527472527473</v>
       </c>
       <c r="K26" t="n">
-        <v>209</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1700,32 +1700,32 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>12.9</v>
+        <v>11.16</v>
       </c>
       <c r="I27" t="n">
-        <v>20.72</v>
+        <v>19.58</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6225868725868726</v>
+        <v>0.5699693564862105</v>
       </c>
       <c r="K27" t="n">
-        <v>306</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1743,36 +1743,36 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>MJ/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>11.16</v>
+        <v>17.72</v>
       </c>
       <c r="I28" t="n">
-        <v>19.58</v>
+        <v>19.99</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5699693564862105</v>
+        <v>0.8864432216108055</v>
       </c>
       <c r="K28" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1794,32 +1794,32 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>17.72</v>
+        <v>15.22</v>
       </c>
       <c r="I29" t="n">
-        <v>19.99</v>
+        <v>24.2</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8864432216108055</v>
+        <v>0.6289256198347107</v>
       </c>
       <c r="K29" t="n">
-        <v>39</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>15.22</v>
+        <v>13.68</v>
       </c>
       <c r="I30" t="n">
-        <v>24.2</v>
+        <v>19.99</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6289256198347107</v>
+        <v>0.6843421710855428</v>
       </c>
       <c r="K30" t="n">
-        <v>549</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ragwitz et al. (2023)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Nachfragereduktion</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1888,22 +1888,22 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>25.06</v>
+        <v>33.1</v>
       </c>
       <c r="I31" t="n">
         <v>29.12</v>
       </c>
       <c r="J31" t="n">
-        <v>0.860576923076923</v>
+        <v>1.136675824175824</v>
       </c>
       <c r="K31" t="n">
-        <v>414</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1931,46 +1931,46 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>13.68</v>
+        <v>2533</v>
       </c>
       <c r="I32" t="n">
-        <v>19.99</v>
+        <v>5091.46</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6843421710855428</v>
+        <v>0.4974997348501216</v>
       </c>
       <c r="K32" t="n">
-        <v>279</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>CTI 2050 Roadmap Tool (2018)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1978,36 +1978,36 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>33.1</v>
+        <v>5387.3</v>
       </c>
       <c r="I33" t="n">
-        <v>29.12</v>
+        <v>5373.61</v>
       </c>
       <c r="J33" t="n">
-        <v>1.136675824175824</v>
+        <v>1.002547635574595</v>
       </c>
       <c r="K33" t="n">
-        <v>139</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2029,32 +2029,32 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>2533</v>
+        <v>1525</v>
       </c>
       <c r="I34" t="n">
-        <v>5091.46</v>
+        <v>2900.63</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4974997348501216</v>
+        <v>0.5257478547763762</v>
       </c>
       <c r="K34" t="n">
-        <v>177</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2076,37 +2076,37 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1525</v>
+        <v>5291.85</v>
       </c>
       <c r="I35" t="n">
-        <v>2900.63</v>
+        <v>5667.85</v>
       </c>
       <c r="J35" t="n">
-        <v>0.5257478547763762</v>
+        <v>0.9336609119860264</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2123,37 +2123,37 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>5291.85</v>
+        <v>5434.78</v>
       </c>
       <c r="I36" t="n">
-        <v>5667.85</v>
+        <v>5091.46</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9336609119860264</v>
+        <v>1.067430560192951</v>
       </c>
       <c r="K36" t="n">
-        <v>561</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2170,42 +2170,42 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>5434.78</v>
+        <v>8122.17</v>
       </c>
       <c r="I37" t="n">
-        <v>5091.46</v>
+        <v>8322.120000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>1.067430560192951</v>
+        <v>0.9759736701705815</v>
       </c>
       <c r="K37" t="n">
-        <v>283</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -2213,41 +2213,41 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>8122.17</v>
+        <v>5947</v>
       </c>
       <c r="I38" t="n">
-        <v>8322.120000000001</v>
+        <v>13007.23</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9759736701705815</v>
+        <v>0.4572072608849079</v>
       </c>
       <c r="K38" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>CTI 2050 Roadmap Tool (2018)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2264,16 +2264,16 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>5947</v>
+        <v>5757.71</v>
       </c>
       <c r="I39" t="n">
-        <v>13007.23</v>
+        <v>10990.06</v>
       </c>
       <c r="J39" t="n">
-        <v>0.4572072608849079</v>
+        <v>0.5239015983534212</v>
       </c>
       <c r="K39" t="n">
-        <v>141</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40">
@@ -2292,7 +2292,11 @@
           <t>based on LED</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Mobility</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>average distance travelled per capita and year | car</t>
@@ -2316,7 +2320,7 @@
         <v>0.7093299513987064</v>
       </c>
       <c r="K40" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
@@ -2431,7 +2435,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2457,28 +2461,28 @@
         <v>0.8442108619231682</v>
       </c>
       <c r="K43" t="n">
-        <v>556</v>
+        <v>495</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2495,32 +2499,32 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>7140.85</v>
+        <v>6731</v>
       </c>
       <c r="I44" t="n">
-        <v>13007.23</v>
+        <v>11890.63</v>
       </c>
       <c r="J44" t="n">
-        <v>0.5489908304842769</v>
+        <v>0.5660759774713368</v>
       </c>
       <c r="K44" t="n">
-        <v>282</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>van de Ven et al. (2018)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Enthusiastic profile</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2542,42 +2546,42 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>6731</v>
+        <v>8783.57</v>
       </c>
       <c r="I45" t="n">
-        <v>11890.63</v>
+        <v>10915.01</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5660759774713368</v>
+        <v>0.8047239535282148</v>
       </c>
       <c r="K45" t="n">
-        <v>98</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>van de Ven et al. (2018)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Enthusiastic profile</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mobility | Car</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2589,22 +2593,22 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>8783.57</v>
+        <v>1423.5</v>
       </c>
       <c r="I46" t="n">
-        <v>10915.01</v>
+        <v>3019.91</v>
       </c>
       <c r="J46" t="n">
-        <v>0.8047239535282148</v>
+        <v>0.4713716633939422</v>
       </c>
       <c r="K46" t="n">
-        <v>372</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2614,12 +2618,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2636,32 +2640,32 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1423.5</v>
+        <v>1200</v>
       </c>
       <c r="I47" t="n">
         <v>3019.91</v>
       </c>
       <c r="J47" t="n">
-        <v>0.4713716633939422</v>
+        <v>0.3973628353162843</v>
       </c>
       <c r="K47" t="n">
-        <v>144</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2683,16 +2687,16 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1200</v>
+        <v>1486.31</v>
       </c>
       <c r="I48" t="n">
-        <v>3019.91</v>
+        <v>2487.61</v>
       </c>
       <c r="J48" t="n">
-        <v>0.3973628353162843</v>
+        <v>0.5974851363356796</v>
       </c>
       <c r="K48" t="n">
-        <v>23</v>
+        <v>497</v>
       </c>
     </row>
     <row r="49">
@@ -2713,7 +2717,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2730,16 +2734,16 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1486.31</v>
+        <v>40.96</v>
       </c>
       <c r="I49" t="n">
-        <v>2960.21</v>
+        <v>2487.61</v>
       </c>
       <c r="J49" t="n">
-        <v>0.5020961350714983</v>
+        <v>0.01646560353110013</v>
       </c>
       <c r="K49" t="n">
-        <v>558</v>
+        <v>499</v>
       </c>
     </row>
     <row r="50">
@@ -2760,7 +2764,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2786,7 +2790,7 @@
         <v>0.02243444341056522</v>
       </c>
       <c r="K50" t="n">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51">
@@ -2833,7 +2837,7 @@
         <v>1.231211086010248</v>
       </c>
       <c r="K51" t="n">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52">
@@ -2854,7 +2858,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mobility | Plane</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2874,13 +2878,13 @@
         <v>3894.66</v>
       </c>
       <c r="I52" t="n">
-        <v>2960.21</v>
+        <v>2487.61</v>
       </c>
       <c r="J52" t="n">
-        <v>1.315670172048605</v>
+        <v>1.565623228721544</v>
       </c>
       <c r="K52" t="n">
-        <v>374</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53">
@@ -2901,7 +2905,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2927,7 +2931,7 @@
         <v>0.589559189599186</v>
       </c>
       <c r="K53" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54">
@@ -2948,7 +2952,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2974,23 +2978,23 @@
         <v>0.6674249764938686</v>
       </c>
       <c r="K54" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>CTI 2050 Roadmap Tool (2018)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3012,32 +3016,32 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>12000</v>
+        <v>10450.25</v>
       </c>
       <c r="I55" t="n">
-        <v>19095.81</v>
+        <v>15384.99</v>
       </c>
       <c r="J55" t="n">
-        <v>0.6284101067197463</v>
+        <v>0.6792497102695549</v>
       </c>
       <c r="K55" t="n">
-        <v>2</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3059,37 +3063,37 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="I56" t="n">
-        <v>18101.66</v>
+        <v>19095.81</v>
       </c>
       <c r="J56" t="n">
-        <v>0.8010315076075896</v>
+        <v>0.6284101067197463</v>
       </c>
       <c r="K56" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3106,37 +3110,37 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>13803.44</v>
+        <v>14500</v>
       </c>
       <c r="I57" t="n">
-        <v>14915.22</v>
+        <v>18101.66</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9254600334423496</v>
+        <v>0.8010315076075896</v>
       </c>
       <c r="K57" t="n">
-        <v>554</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3153,32 +3157,32 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>13550</v>
+        <v>13803.44</v>
       </c>
       <c r="I58" t="n">
-        <v>18101.66</v>
+        <v>14915.22</v>
       </c>
       <c r="J58" t="n">
-        <v>0.7485501329712303</v>
+        <v>0.9254600334423496</v>
       </c>
       <c r="K58" t="n">
-        <v>281</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3200,32 +3204,32 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>13337.6</v>
+        <v>12990.49</v>
       </c>
       <c r="I59" t="n">
-        <v>16412.26</v>
+        <v>14915.22</v>
       </c>
       <c r="J59" t="n">
-        <v>0.8126607791979898</v>
+        <v>0.8709553060564981</v>
       </c>
       <c r="K59" t="n">
-        <v>91</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3247,32 +3251,32 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>16019.03</v>
+        <v>13550</v>
       </c>
       <c r="I60" t="n">
-        <v>16412.26</v>
+        <v>18101.66</v>
       </c>
       <c r="J60" t="n">
-        <v>0.9760404721835995</v>
+        <v>0.7485501329712303</v>
       </c>
       <c r="K60" t="n">
-        <v>92</v>
+        <v>289</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>van de Ven et al. (2018)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Enthusiastic profile</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3294,42 +3298,42 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>11829.32</v>
+        <v>13337.6</v>
       </c>
       <c r="I61" t="n">
-        <v>14915.22</v>
+        <v>16412.26</v>
       </c>
       <c r="J61" t="n">
-        <v>0.7931039568977193</v>
+        <v>0.8126607791979898</v>
       </c>
       <c r="K61" t="n">
-        <v>366</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3337,46 +3341,46 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>48</v>
+        <v>16019.03</v>
       </c>
       <c r="I62" t="n">
-        <v>41.7</v>
+        <v>16412.26</v>
       </c>
       <c r="J62" t="n">
-        <v>1.151079136690647</v>
+        <v>0.9760404721835995</v>
       </c>
       <c r="K62" t="n">
-        <v>178</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>van de Ven et al. (2018)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>Enthusiastic profile</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3384,42 +3388,46 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>m^2/person</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>30</v>
+        <v>11829.32</v>
       </c>
       <c r="I63" t="n">
-        <v>45.4</v>
+        <v>14915.22</v>
       </c>
       <c r="J63" t="n">
-        <v>0.6607929515418502</v>
+        <v>0.7931039568977193</v>
       </c>
       <c r="K63" t="n">
-        <v>196</v>
+        <v>331</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>based on LED</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>S1: Low production</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Buildings</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3431,16 +3439,16 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I64" t="n">
-        <v>45.4</v>
+        <v>2.55</v>
       </c>
       <c r="J64" t="n">
-        <v>0.7048458149779736</v>
+        <v>4.705882352941177</v>
       </c>
       <c r="K64" t="n">
-        <v>83</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65">
@@ -3466,7 +3474,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3478,16 +3486,16 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>43.43</v>
+        <v>16</v>
       </c>
       <c r="I65" t="n">
-        <v>44.8</v>
+        <v>2.81</v>
       </c>
       <c r="J65" t="n">
-        <v>0.9694196428571429</v>
+        <v>5.693950177935943</v>
       </c>
       <c r="K65" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66">
@@ -3513,7 +3521,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3525,13 +3533,13 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>39.47</v>
+        <v>15.14</v>
       </c>
       <c r="I66" t="n">
-        <v>41.7</v>
+        <v>2.55</v>
       </c>
       <c r="J66" t="n">
-        <v>0.9465227817745803</v>
+        <v>5.937254901960785</v>
       </c>
       <c r="K66" t="n">
         <v>35</v>
@@ -3540,17 +3548,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3560,7 +3568,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3568,36 +3576,36 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/capita</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>41.49</v>
+        <v>16.48</v>
       </c>
       <c r="I67" t="n">
-        <v>39.94</v>
+        <v>2.55</v>
       </c>
       <c r="J67" t="n">
-        <v>1.038808212318478</v>
+        <v>6.462745098039217</v>
       </c>
       <c r="K67" t="n">
-        <v>552</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3615,46 +3623,46 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>41.17</v>
+        <v>48</v>
       </c>
       <c r="I68" t="n">
-        <v>45.4</v>
+        <v>41.7</v>
       </c>
       <c r="J68" t="n">
-        <v>0.9068281938325992</v>
+        <v>1.151079136690647</v>
       </c>
       <c r="K68" t="n">
-        <v>114</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>food waste per capita and year</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -3662,46 +3670,46 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>kg/cap/year</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="I69" t="n">
-        <v>78.26000000000001</v>
+        <v>45.4</v>
       </c>
       <c r="J69" t="n">
-        <v>0.2491694352159468</v>
+        <v>0.6607929515418502</v>
       </c>
       <c r="K69" t="n">
-        <v>323</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>based on LED</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>food waste per capita and year</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3709,67 +3717,349 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>kg/cap/year</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>65.5</v>
+        <v>32</v>
       </c>
       <c r="I70" t="n">
-        <v>131</v>
+        <v>45.4</v>
       </c>
       <c r="J70" t="n">
-        <v>0.5</v>
+        <v>0.7048458149779736</v>
       </c>
       <c r="K70" t="n">
-        <v>565</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>Gaur et al. (2022)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ILED</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Buildings</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>living space per capita</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>m2/cap</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>43.43</v>
+      </c>
+      <c r="I71" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.9694196428571429</v>
+      </c>
+      <c r="K71" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>négaWatt (2022)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Buildings</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>living space per capita</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>m2/cap</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>39.47</v>
+      </c>
+      <c r="I72" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.9465227817745803</v>
+      </c>
+      <c r="K72" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>EU path</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Buildings</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>living space per capita</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>m²/cap</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>41.49</v>
+      </c>
+      <c r="I73" t="n">
+        <v>39.94</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.038808212318478</v>
+      </c>
+      <c r="K73" t="n">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
           <t>UBA (2020)</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>GreenSupreme</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Buildings</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>living space per capita</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>m2/cap</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>41.17</v>
+      </c>
+      <c r="I74" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.9068281938325992</v>
+      </c>
+      <c r="K74" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>EU path</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>meat consumption per capita and day</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>kcal meat/cap/day</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>332.5</v>
+      </c>
+      <c r="I75" t="n">
+        <v>347</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.9582132564841499</v>
+      </c>
+      <c r="K75" t="n">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>van de Ven et al. (2018)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Enthusiastic profile</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>meat consumption per capita and day</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>kcal/cap/day</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>347</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>EU path</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
         <is>
           <t>food waste per capita and year</t>
         </is>
       </c>
-      <c r="F71" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G71" t="inlineStr">
+      <c r="F77" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>kg/cap/year</t>
         </is>
       </c>
-      <c r="H71" t="n">
-        <v>55.63</v>
-      </c>
-      <c r="I71" t="n">
-        <v>75.01000000000001</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.7416344487401679</v>
-      </c>
-      <c r="K71" t="n">
-        <v>130</v>
+      <c r="H77" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="I77" t="n">
+        <v>131</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>506</v>
       </c>
     </row>
   </sheetData>

--- a/output/boxplot_historic_table.xlsx
+++ b/output/boxplot_historic_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +534,7 @@
         <v>0.4742883379247015</v>
       </c>
       <c r="K2" t="n">
-        <v>181</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
@@ -581,23 +581,23 @@
         <v>0.5213270142180095</v>
       </c>
       <c r="K3" t="n">
-        <v>199</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CTI 2050 Roadmap Tool (2018)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -619,32 +619,32 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>38.83</v>
+        <v>65.16</v>
       </c>
       <c r="I4" t="n">
-        <v>86.61</v>
+        <v>88.2</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4483316014317053</v>
+        <v>0.7387755102040816</v>
       </c>
       <c r="K4" t="n">
-        <v>349</v>
+        <v>792</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -666,32 +666,32 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>49</v>
+        <v>36.78</v>
       </c>
       <c r="I5" t="n">
-        <v>102.96</v>
+        <v>74.36</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4759129759129759</v>
+        <v>0.4946207638515331</v>
       </c>
       <c r="K5" t="n">
-        <v>192</v>
+        <v>853</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -713,32 +713,32 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>59</v>
+        <v>38.83</v>
       </c>
       <c r="I6" t="n">
-        <v>90</v>
+        <v>86.61</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6555555555555556</v>
+        <v>0.4483316014317053</v>
       </c>
       <c r="K6" t="n">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -760,32 +760,32 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>48.15</v>
+        <v>49</v>
       </c>
       <c r="I7" t="n">
-        <v>87.12</v>
+        <v>102.96</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5526859504132231</v>
+        <v>0.4759129759129759</v>
       </c>
       <c r="K7" t="n">
-        <v>39</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -807,32 +807,32 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>44.28</v>
+        <v>59</v>
       </c>
       <c r="I8" t="n">
-        <v>88.2</v>
+        <v>90</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5020408163265306</v>
+        <v>0.6555555555555556</v>
       </c>
       <c r="K8" t="n">
-        <v>484</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -854,42 +854,42 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>68.39</v>
+        <v>48.15</v>
       </c>
       <c r="I9" t="n">
-        <v>102.96</v>
+        <v>87.12</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6642385392385393</v>
+        <v>0.5526859504132231</v>
       </c>
       <c r="K9" t="n">
-        <v>85</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>steel production per capita and year</t>
+          <t>final energy demand per capita and year</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -897,46 +897,46 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.08</v>
+        <v>44.28</v>
       </c>
       <c r="I10" t="n">
-        <v>0.22</v>
+        <v>88.2</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.5020408163265306</v>
       </c>
       <c r="K10" t="n">
-        <v>168</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Barrett et al. (2022)</t>
+          <t>van Sluisveld et al. (2020)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Europe+UA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Transform</t>
+          <t>RegChange</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>steel production per capita and year</t>
+          <t>final energy demand per capita and year</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -944,36 +944,36 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.06</v>
+        <v>56.31</v>
       </c>
       <c r="I11" t="n">
-        <v>0.11</v>
+        <v>94.14</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5981516889738687</v>
       </c>
       <c r="K11" t="n">
-        <v>211</v>
+        <v>672</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CTI 2050 Roadmap Tool (2018)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -995,32 +995,32 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I12" t="n">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2592592592592592</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="K12" t="n">
-        <v>363</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Barrett et al. (2022)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Transform</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1042,22 +1042,22 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="I13" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="K13" t="n">
-        <v>45</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1089,32 +1089,32 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="I14" t="n">
         <v>0.34</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8823529411764705</v>
+        <v>0.8529411764705881</v>
       </c>
       <c r="K14" t="n">
-        <v>510</v>
+        <v>774</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1136,32 +1136,32 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.18</v>
+        <v>0.31</v>
       </c>
       <c r="I15" t="n">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8181818181818181</v>
+        <v>0.96875</v>
       </c>
       <c r="K15" t="n">
-        <v>297</v>
+        <v>840</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1183,22 +1183,22 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.44</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>0.48</v>
+        <v>0.27</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9166666666666667</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="K16" t="n">
-        <v>115</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>steel production per capita and year</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1230,32 +1230,32 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="I17" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="K17" t="n">
-        <v>172</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Barrett et al. (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Transform</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>steel production per capita and year</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1277,32 +1277,32 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>0.14</v>
+        <v>0.34</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8823529411764705</v>
       </c>
       <c r="K18" t="n">
-        <v>215</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CTI 2050 Roadmap Tool (2018)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>steel production per capita and year</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="I19" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.8181818181818181</v>
       </c>
       <c r="K19" t="n">
-        <v>368</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>steel production per capita and year</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1371,32 +1371,32 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.24</v>
+        <v>0.44</v>
       </c>
       <c r="I20" t="n">
-        <v>0.66</v>
+        <v>0.48</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.9166666666666667</v>
       </c>
       <c r="K20" t="n">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1418,32 +1418,32 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.22</v>
+        <v>0.06</v>
       </c>
       <c r="I21" t="n">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5945945945945946</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K21" t="n">
-        <v>508</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>Barrett et al. (2022)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>Transform</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1465,32 +1465,32 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I22" t="n">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4615384615384615</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K22" t="n">
-        <v>300</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1512,32 +1512,32 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="I23" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5365853658536586</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="K23" t="n">
-        <v>120</v>
+        <v>770</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1555,36 +1555,36 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>14.46</v>
+        <v>0.19</v>
       </c>
       <c r="I24" t="n">
-        <v>19.99</v>
+        <v>0.34</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7233616808404203</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="K24" t="n">
-        <v>183</v>
+        <v>863</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Barrett et al. (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Transform</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1602,36 +1602,36 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>GJ/person/year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>13.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>13.09</v>
+        <v>0.34</v>
       </c>
       <c r="J25" t="n">
-        <v>1.000763941940412</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="K25" t="n">
-        <v>207</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CTI 2050 Roadmap Tool (2018)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1649,36 +1649,36 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>8.81</v>
+        <v>0.33</v>
       </c>
       <c r="I26" t="n">
-        <v>22.75</v>
+        <v>0.66</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3872527472527473</v>
+        <v>0.5</v>
       </c>
       <c r="K26" t="n">
-        <v>371</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1696,26 +1696,26 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>11.16</v>
+        <v>0.22</v>
       </c>
       <c r="I27" t="n">
-        <v>19.58</v>
+        <v>0.37</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5699693564862105</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="K27" t="n">
-        <v>17</v>
+        <v>560</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1743,36 +1743,36 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>17.72</v>
+        <v>0.12</v>
       </c>
       <c r="I28" t="n">
-        <v>19.99</v>
+        <v>0.26</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8864432216108055</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="K28" t="n">
-        <v>37</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1790,26 +1790,26 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>15.22</v>
+        <v>0.22</v>
       </c>
       <c r="I29" t="n">
-        <v>24.2</v>
+        <v>0.41</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6289256198347107</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="K29" t="n">
-        <v>486</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1841,32 +1841,32 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>13.68</v>
+        <v>14.46</v>
       </c>
       <c r="I30" t="n">
         <v>19.99</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6843421710855428</v>
+        <v>0.7233616808404203</v>
       </c>
       <c r="K30" t="n">
-        <v>287</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Barrett et al. (2022)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Transform</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1884,46 +1884,46 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>GJ/person/year</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>33.1</v>
+        <v>13.1</v>
       </c>
       <c r="I31" t="n">
-        <v>29.12</v>
+        <v>13.09</v>
       </c>
       <c r="J31" t="n">
-        <v>1.136675824175824</v>
+        <v>1.000763941940412</v>
       </c>
       <c r="K31" t="n">
-        <v>135</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1931,46 +1931,46 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2533</v>
+        <v>14.78</v>
       </c>
       <c r="I32" t="n">
-        <v>5091.46</v>
+        <v>24.2</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4974997348501216</v>
+        <v>0.6107438016528925</v>
       </c>
       <c r="K32" t="n">
-        <v>175</v>
+        <v>798</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CTI 2050 Roadmap Tool (2018)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1978,46 +1978,46 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>5387.3</v>
+        <v>12.89</v>
       </c>
       <c r="I33" t="n">
-        <v>5373.61</v>
+        <v>20.72</v>
       </c>
       <c r="J33" t="n">
-        <v>1.002547635574595</v>
+        <v>0.6221042471042472</v>
       </c>
       <c r="K33" t="n">
-        <v>358</v>
+        <v>854</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2025,46 +2025,46 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1525</v>
+        <v>8.81</v>
       </c>
       <c r="I34" t="n">
-        <v>2900.63</v>
+        <v>22.75</v>
       </c>
       <c r="J34" t="n">
-        <v>0.5257478547763762</v>
+        <v>0.3872527472527473</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>423</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2072,26 +2072,26 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>5291.85</v>
+        <v>11.16</v>
       </c>
       <c r="I35" t="n">
-        <v>5667.85</v>
+        <v>19.58</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9336609119860264</v>
+        <v>0.5699693564862105</v>
       </c>
       <c r="K35" t="n">
-        <v>502</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2101,17 +2101,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2119,46 +2119,46 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>5434.78</v>
+        <v>17.72</v>
       </c>
       <c r="I36" t="n">
-        <v>5091.46</v>
+        <v>19.99</v>
       </c>
       <c r="J36" t="n">
-        <v>1.067430560192951</v>
+        <v>0.8864432216108055</v>
       </c>
       <c r="K36" t="n">
-        <v>293</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2166,26 +2166,26 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>8122.17</v>
+        <v>15.22</v>
       </c>
       <c r="I37" t="n">
-        <v>8322.120000000001</v>
+        <v>24.2</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9759736701705815</v>
+        <v>0.6289256198347107</v>
       </c>
       <c r="K37" t="n">
-        <v>128</v>
+        <v>538</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2195,17 +2195,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -2213,46 +2213,46 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>5947</v>
+        <v>13.68</v>
       </c>
       <c r="I38" t="n">
-        <v>13007.23</v>
+        <v>19.99</v>
       </c>
       <c r="J38" t="n">
-        <v>0.4572072608849079</v>
+        <v>0.6843421710855428</v>
       </c>
       <c r="K38" t="n">
-        <v>137</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CTI 2050 Roadmap Tool (2018)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2260,46 +2260,46 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>5757.71</v>
+        <v>18.78</v>
       </c>
       <c r="I39" t="n">
-        <v>10990.06</v>
+        <v>29.12</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5239015983534212</v>
+        <v>0.6449175824175825</v>
       </c>
       <c r="K39" t="n">
-        <v>355</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>based on LED</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2307,46 +2307,46 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>8434.379999999999</v>
+        <v>2533</v>
       </c>
       <c r="I40" t="n">
-        <v>11890.63</v>
+        <v>5091.46</v>
       </c>
       <c r="J40" t="n">
-        <v>0.7093299513987064</v>
+        <v>0.4974997348501216</v>
       </c>
       <c r="K40" t="n">
-        <v>78</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2354,46 +2354,46 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>6240</v>
+        <v>3809.48</v>
       </c>
       <c r="I41" t="n">
-        <v>12972.26</v>
+        <v>5667.85</v>
       </c>
       <c r="J41" t="n">
-        <v>0.4810264364112344</v>
+        <v>0.6721208218283828</v>
       </c>
       <c r="K41" t="n">
-        <v>3</v>
+        <v>782</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2401,46 +2401,46 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>7350</v>
+        <v>5411.16</v>
       </c>
       <c r="I42" t="n">
-        <v>13007.23</v>
+        <v>7217.52</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5650703493364844</v>
+        <v>0.7497256675423136</v>
       </c>
       <c r="K42" t="n">
-        <v>26</v>
+        <v>860</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2448,46 +2448,46 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>9214.57</v>
+        <v>5387.3</v>
       </c>
       <c r="I43" t="n">
-        <v>10915.01</v>
+        <v>5373.61</v>
       </c>
       <c r="J43" t="n">
-        <v>0.8442108619231682</v>
+        <v>1.002547635574595</v>
       </c>
       <c r="K43" t="n">
-        <v>495</v>
+        <v>409</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2495,26 +2495,26 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>6731</v>
+        <v>1525</v>
       </c>
       <c r="I44" t="n">
-        <v>11890.63</v>
+        <v>2900.63</v>
       </c>
       <c r="J44" t="n">
-        <v>0.5660759774713368</v>
+        <v>0.5257478547763762</v>
       </c>
       <c r="K44" t="n">
-        <v>94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>van de Ven et al. (2018)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2524,17 +2524,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Enthusiastic profile</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2542,26 +2542,26 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>8783.57</v>
+        <v>5291.85</v>
       </c>
       <c r="I45" t="n">
-        <v>10915.01</v>
+        <v>5667.85</v>
       </c>
       <c r="J45" t="n">
-        <v>0.8047239535282148</v>
+        <v>0.9336609119860264</v>
       </c>
       <c r="K45" t="n">
-        <v>337</v>
+        <v>554</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2589,46 +2589,46 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1423.5</v>
+        <v>5434.78</v>
       </c>
       <c r="I46" t="n">
-        <v>3019.91</v>
+        <v>5091.46</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4713716633939422</v>
+        <v>1.067430560192951</v>
       </c>
       <c r="K46" t="n">
-        <v>142</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2636,36 +2636,36 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1200</v>
+        <v>8122.17</v>
       </c>
       <c r="I47" t="n">
-        <v>3019.91</v>
+        <v>8322.120000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>0.3973628353162843</v>
+        <v>0.9759736701705815</v>
       </c>
       <c r="K47" t="n">
-        <v>23</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2687,32 +2687,32 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1486.31</v>
+        <v>5947</v>
       </c>
       <c r="I48" t="n">
-        <v>2487.61</v>
+        <v>13007.23</v>
       </c>
       <c r="J48" t="n">
-        <v>0.5974851363356796</v>
+        <v>0.4572072608849079</v>
       </c>
       <c r="K48" t="n">
-        <v>497</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2734,32 +2734,32 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>40.96</v>
+        <v>4380.03</v>
       </c>
       <c r="I49" t="n">
-        <v>2487.61</v>
+        <v>9453.85</v>
       </c>
       <c r="J49" t="n">
-        <v>0.01646560353110013</v>
+        <v>0.4633064836019187</v>
       </c>
       <c r="K49" t="n">
-        <v>499</v>
+        <v>858</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2781,22 +2781,22 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>67.75</v>
+        <v>5757.71</v>
       </c>
       <c r="I50" t="n">
-        <v>3019.91</v>
+        <v>10990.06</v>
       </c>
       <c r="J50" t="n">
-        <v>0.02243444341056522</v>
+        <v>0.5239015983534212</v>
       </c>
       <c r="K50" t="n">
-        <v>279</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>based on LED</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2828,32 +2828,32 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>2681.43</v>
+        <v>8434.379999999999</v>
       </c>
       <c r="I51" t="n">
-        <v>2177.88</v>
+        <v>11890.63</v>
       </c>
       <c r="J51" t="n">
-        <v>1.231211086010248</v>
+        <v>0.7093299513987064</v>
       </c>
       <c r="K51" t="n">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>van de Ven et al. (2018)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Enthusiastic profile</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2875,22 +2875,22 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>3894.66</v>
+        <v>6240</v>
       </c>
       <c r="I52" t="n">
-        <v>2487.61</v>
+        <v>12972.26</v>
       </c>
       <c r="J52" t="n">
-        <v>1.565623228721544</v>
+        <v>0.4810264364112344</v>
       </c>
       <c r="K52" t="n">
-        <v>339</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2922,32 +2922,32 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>10672</v>
+        <v>7350</v>
       </c>
       <c r="I53" t="n">
-        <v>18101.66</v>
+        <v>13007.23</v>
       </c>
       <c r="J53" t="n">
-        <v>0.589559189599186</v>
+        <v>0.5650703493364844</v>
       </c>
       <c r="K53" t="n">
-        <v>146</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2969,32 +2969,32 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>12081.5</v>
+        <v>9214.57</v>
       </c>
       <c r="I54" t="n">
-        <v>18101.66</v>
+        <v>10915.01</v>
       </c>
       <c r="J54" t="n">
-        <v>0.6674249764938686</v>
+        <v>0.8442108619231682</v>
       </c>
       <c r="K54" t="n">
-        <v>147</v>
+        <v>547</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CTI 2050 Roadmap Tool (2018)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -3016,32 +3016,32 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>10450.25</v>
+        <v>6731</v>
       </c>
       <c r="I55" t="n">
-        <v>15384.99</v>
+        <v>11890.63</v>
       </c>
       <c r="J55" t="n">
-        <v>0.6792497102695549</v>
+        <v>0.5660759774713368</v>
       </c>
       <c r="K55" t="n">
-        <v>352</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>van de Ven et al. (2018)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>Enthusiastic profile</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3063,22 +3063,22 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>12000</v>
+        <v>8783.57</v>
       </c>
       <c r="I56" t="n">
-        <v>19095.81</v>
+        <v>10915.01</v>
       </c>
       <c r="J56" t="n">
-        <v>0.6284101067197463</v>
+        <v>0.8047239535282148</v>
       </c>
       <c r="K56" t="n">
-        <v>2</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -3110,22 +3110,22 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>14500</v>
+        <v>1423.5</v>
       </c>
       <c r="I57" t="n">
-        <v>18101.66</v>
+        <v>3019.91</v>
       </c>
       <c r="J57" t="n">
-        <v>0.8010315076075896</v>
+        <v>0.4713716633939422</v>
       </c>
       <c r="K57" t="n">
-        <v>25</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3157,32 +3157,32 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>13803.44</v>
+        <v>1520</v>
       </c>
       <c r="I58" t="n">
-        <v>14915.22</v>
+        <v>2487.61</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9254600334423496</v>
+        <v>0.6110282560369189</v>
       </c>
       <c r="K58" t="n">
-        <v>492</v>
+        <v>804</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3204,22 +3204,22 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>12990.49</v>
+        <v>1169.33</v>
       </c>
       <c r="I59" t="n">
-        <v>14915.22</v>
+        <v>1219.17</v>
       </c>
       <c r="J59" t="n">
-        <v>0.8709553060564981</v>
+        <v>0.9591197289959561</v>
       </c>
       <c r="K59" t="n">
-        <v>493</v>
+        <v>859</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3251,32 +3251,32 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>13550</v>
+        <v>1200</v>
       </c>
       <c r="I60" t="n">
-        <v>18101.66</v>
+        <v>3019.91</v>
       </c>
       <c r="J60" t="n">
-        <v>0.7485501329712303</v>
+        <v>0.3973628353162843</v>
       </c>
       <c r="K60" t="n">
-        <v>289</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3298,32 +3298,32 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>13337.6</v>
+        <v>832.5</v>
       </c>
       <c r="I61" t="n">
-        <v>16412.26</v>
+        <v>14915.22</v>
       </c>
       <c r="J61" t="n">
-        <v>0.8126607791979898</v>
+        <v>0.055815469030963</v>
       </c>
       <c r="K61" t="n">
-        <v>87</v>
+        <v>800</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3345,22 +3345,22 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>16019.03</v>
+        <v>10700</v>
       </c>
       <c r="I62" t="n">
-        <v>16412.26</v>
+        <v>14915.22</v>
       </c>
       <c r="J62" t="n">
-        <v>0.9760404721835995</v>
+        <v>0.7173880103679329</v>
       </c>
       <c r="K62" t="n">
-        <v>88</v>
+        <v>802</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>van de Ven et al. (2018)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Enthusiastic profile</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3392,42 +3392,42 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>11829.32</v>
+        <v>13052.5</v>
       </c>
       <c r="I63" t="n">
         <v>14915.22</v>
       </c>
       <c r="J63" t="n">
-        <v>0.7931039568977193</v>
+        <v>0.8751128042362097</v>
       </c>
       <c r="K63" t="n">
-        <v>331</v>
+        <v>806</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3435,46 +3435,46 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>12</v>
+        <v>12670.32</v>
       </c>
       <c r="I64" t="n">
-        <v>2.55</v>
+        <v>13195.48</v>
       </c>
       <c r="J64" t="n">
-        <v>4.705882352941177</v>
+        <v>0.9602015235520042</v>
       </c>
       <c r="K64" t="n">
-        <v>158</v>
+        <v>857</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3482,46 +3482,46 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>16</v>
+        <v>10450.25</v>
       </c>
       <c r="I65" t="n">
-        <v>2.81</v>
+        <v>15384.99</v>
       </c>
       <c r="J65" t="n">
-        <v>5.693950177935943</v>
+        <v>0.6792497102695549</v>
       </c>
       <c r="K65" t="n">
-        <v>22</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3529,26 +3529,26 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>15.14</v>
+        <v>12000</v>
       </c>
       <c r="I66" t="n">
-        <v>2.55</v>
+        <v>15342</v>
       </c>
       <c r="J66" t="n">
-        <v>5.937254901960785</v>
+        <v>0.7821666014861165</v>
       </c>
       <c r="K66" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3558,17 +3558,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3576,46 +3576,46 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>m2/capita</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>16.48</v>
+        <v>14500</v>
       </c>
       <c r="I67" t="n">
-        <v>2.55</v>
+        <v>18101.66</v>
       </c>
       <c r="J67" t="n">
-        <v>6.462745098039217</v>
+        <v>0.8010315076075896</v>
       </c>
       <c r="K67" t="n">
-        <v>280</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3623,46 +3623,46 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>48</v>
+        <v>13803.44</v>
       </c>
       <c r="I68" t="n">
-        <v>41.7</v>
+        <v>14915.22</v>
       </c>
       <c r="J68" t="n">
-        <v>1.151079136690647</v>
+        <v>0.9254600334423496</v>
       </c>
       <c r="K68" t="n">
-        <v>176</v>
+        <v>544</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -3670,36 +3670,36 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>30</v>
+        <v>12990.49</v>
       </c>
       <c r="I69" t="n">
-        <v>45.4</v>
+        <v>14915.22</v>
       </c>
       <c r="J69" t="n">
-        <v>0.6607929515418502</v>
+        <v>0.8709553060564981</v>
       </c>
       <c r="K69" t="n">
-        <v>194</v>
+        <v>545</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>based on LED</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3721,32 +3721,32 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I70" t="n">
-        <v>45.4</v>
+        <v>15</v>
       </c>
       <c r="J70" t="n">
-        <v>0.7048458149779736</v>
+        <v>0.8</v>
       </c>
       <c r="K70" t="n">
-        <v>79</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3764,36 +3764,36 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m2</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>43.43</v>
+        <v>16.84</v>
       </c>
       <c r="I71" t="n">
-        <v>44.8</v>
+        <v>17.73</v>
       </c>
       <c r="J71" t="n">
-        <v>0.9694196428571429</v>
+        <v>0.9498025944726453</v>
       </c>
       <c r="K71" t="n">
-        <v>11</v>
+        <v>762</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3811,36 +3811,36 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>39.47</v>
+        <v>14.12</v>
       </c>
       <c r="I72" t="n">
-        <v>41.7</v>
+        <v>14.69</v>
       </c>
       <c r="J72" t="n">
-        <v>0.9465227817745803</v>
+        <v>0.9611980939414567</v>
       </c>
       <c r="K72" t="n">
-        <v>33</v>
+        <v>856</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -3858,36 +3858,36 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>41.49</v>
+        <v>16</v>
       </c>
       <c r="I73" t="n">
-        <v>39.94</v>
+        <v>17.92</v>
       </c>
       <c r="J73" t="n">
-        <v>1.038808212318478</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="K73" t="n">
-        <v>489</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3909,42 +3909,42 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>41.17</v>
+        <v>15.14</v>
       </c>
       <c r="I74" t="n">
-        <v>45.4</v>
+        <v>15</v>
       </c>
       <c r="J74" t="n">
-        <v>0.9068281938325992</v>
+        <v>1.009333333333333</v>
       </c>
       <c r="K74" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3952,46 +3952,46 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>m2/capita</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>332.5</v>
+        <v>13.58</v>
       </c>
       <c r="I75" t="n">
-        <v>347</v>
+        <v>14.79</v>
       </c>
       <c r="J75" t="n">
-        <v>0.9582132564841499</v>
+        <v>0.9181879648411089</v>
       </c>
       <c r="K75" t="n">
-        <v>504</v>
+        <v>329</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>van de Ven et al. (2018)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Enthusiastic profile</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -3999,67 +3999,913 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>kcal/cap/day</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I76" t="n">
-        <v>347</v>
+        <v>49</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="K76" t="n">
-        <v>320</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
+          <t>Climact (2024)</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Net Zero 2040</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Buildings</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>living space per capita</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>m2/cap</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>26.38</v>
+      </c>
+      <c r="I77" t="n">
+        <v>39.94</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.6604907361041562</v>
+      </c>
+      <c r="K77" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Costa et al. (2021) / EUCalc</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>EU28+CH</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Life / Lever 4</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Buildings</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>living space per capita</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>m²/cap</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="I78" t="n">
+        <v>45.19</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.8006196061075459</v>
+      </c>
+      <c r="K78" t="n">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Eerma et al. (2022)</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>High Ambition</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Buildings</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>living space per capita</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>m²/cap</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>30</v>
+      </c>
+      <c r="I79" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.6607929515418502</v>
+      </c>
+      <c r="K79" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Fishman et al. (2021)</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>based on LED</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Buildings</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>living space per capita</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>m2/cap</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>32</v>
+      </c>
+      <c r="I80" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.7048458149779736</v>
+      </c>
+      <c r="K80" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Gaur et al. (2022)</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ILED</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Buildings</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>living space per capita</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>m2/cap</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>43.43</v>
+      </c>
+      <c r="I81" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.9694196428571429</v>
+      </c>
+      <c r="K81" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>négaWatt (2022)</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Buildings</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>living space per capita</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>m2/cap</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>39.47</v>
+      </c>
+      <c r="I82" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.9465227817745803</v>
+      </c>
+      <c r="K82" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
           <t>négaWatt et al. (2023)</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>EU27</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>EU path</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Buildings</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>living space per capita</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>m²/cap</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>41.49</v>
+      </c>
+      <c r="I83" t="n">
+        <v>39.94</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.038808212318478</v>
+      </c>
+      <c r="K83" t="n">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>UBA (2021)</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>GreenSupreme</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Buildings</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>living space per capita</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>m2/cap</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>41.17</v>
+      </c>
+      <c r="I84" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.9068281938325992</v>
+      </c>
+      <c r="K84" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ADEME (2022)</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>S1: Low production</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>Food</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>meat consumption per capita and day</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>kcal meat/cap/day</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="I85" t="n">
+        <v>387</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.1576485788113695</v>
+      </c>
+      <c r="K85" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Climact (2024)</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Net Zero 2040</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>meat consumption per capita and day</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>kcal meat/cap/day</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>260.25</v>
+      </c>
+      <c r="I86" t="n">
+        <v>347</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K86" t="n">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Costa et al. (2021) / EUCalc</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>EU28+CH</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Life / Lever 4</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>meat consumption per capita and day</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>kcal meat/cap/day</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>84.09</v>
+      </c>
+      <c r="I87" t="n">
+        <v>322.42</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.2608088828236462</v>
+      </c>
+      <c r="K87" t="n">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>négaWatt (2022)</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>meat consumption per capita and day</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>kcal/cap/day</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>155.01</v>
+      </c>
+      <c r="I88" t="n">
+        <v>387</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.4005426356589147</v>
+      </c>
+      <c r="K88" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>EU path</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>meat consumption per capita and day</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>kcal meat/cap/day</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>211.34</v>
+      </c>
+      <c r="I89" t="n">
+        <v>347</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.6090489913544669</v>
+      </c>
+      <c r="K89" t="n">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>UBA (2021)</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>GreenSupreme</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>meat consumption per capita and day</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>kcal meat/cap/day</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>64.59</v>
+      </c>
+      <c r="I90" t="n">
+        <v>325</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.1987384615384616</v>
+      </c>
+      <c r="K90" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>van de Ven et al. (2018)</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Enthusiastic profile</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>meat consumption per capita and day</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>kcal/cap/day</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>347</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Climact (2024)</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Net Zero 2040</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
         <is>
           <t>food waste per capita and year</t>
         </is>
       </c>
-      <c r="F77" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G77" t="inlineStr">
+      <c r="F92" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G92" t="inlineStr">
         <is>
           <t>kg/cap/year</t>
         </is>
       </c>
-      <c r="H77" t="n">
+      <c r="H92" t="n">
+        <v>58.95</v>
+      </c>
+      <c r="I92" t="n">
+        <v>131</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K92" t="n">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>négaWatt (2022)</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>food waste per capita and year</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>kg/cap/year</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>46</v>
+      </c>
+      <c r="I93" t="n">
+        <v>110</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.4181818181818182</v>
+      </c>
+      <c r="K93" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>EU path</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>food waste per capita and year</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>kg/cap/year</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
         <v>65.5</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I94" t="n">
         <v>131</v>
       </c>
-      <c r="J77" t="n">
+      <c r="J94" t="n">
         <v>0.5</v>
       </c>
-      <c r="K77" t="n">
-        <v>506</v>
+      <c r="K94" t="n">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>UBA (2021)</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>GreenSupreme</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>food waste per capita and year</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>kg/cap/year</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="I95" t="n">
+        <v>131</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/output/boxplot_historic_table.xlsx
+++ b/output/boxplot_historic_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,7 +628,7 @@
         <v>0.7387755102040816</v>
       </c>
       <c r="K4" t="n">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="5">
@@ -669,13 +669,13 @@
         <v>36.78</v>
       </c>
       <c r="I5" t="n">
-        <v>74.36</v>
+        <v>86.55</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4946207638515331</v>
+        <v>0.4249566724436742</v>
       </c>
       <c r="K5" t="n">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="6">
@@ -722,7 +722,7 @@
         <v>0.4483316014317053</v>
       </c>
       <c r="K6" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7">
@@ -910,7 +910,7 @@
         <v>0.5020408163265306</v>
       </c>
       <c r="K10" t="n">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11">
@@ -957,7 +957,7 @@
         <v>0.5981516889738687</v>
       </c>
       <c r="K11" t="n">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1098,7 @@
         <v>0.8529411764705881</v>
       </c>
       <c r="K14" t="n">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="15">
@@ -1145,7 +1145,7 @@
         <v>0.96875</v>
       </c>
       <c r="K15" t="n">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="16">
@@ -1192,7 +1192,7 @@
         <v>0.2592592592592592</v>
       </c>
       <c r="K16" t="n">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17">
@@ -1286,7 +1286,7 @@
         <v>0.8823529411764705</v>
       </c>
       <c r="K18" t="n">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19">
@@ -1521,7 +1521,7 @@
         <v>0.4864864864864865</v>
       </c>
       <c r="K23" t="n">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="24">
@@ -1568,7 +1568,7 @@
         <v>0.5588235294117647</v>
       </c>
       <c r="K24" t="n">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="25">
@@ -1615,7 +1615,7 @@
         <v>0.2058823529411765</v>
       </c>
       <c r="K25" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26">
@@ -1709,7 +1709,7 @@
         <v>0.5945945945945946</v>
       </c>
       <c r="K27" t="n">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="28">
@@ -1944,7 +1944,7 @@
         <v>0.6107438016528925</v>
       </c>
       <c r="K32" t="n">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="33">
@@ -1991,7 +1991,7 @@
         <v>0.6221042471042472</v>
       </c>
       <c r="K33" t="n">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="34">
@@ -2038,7 +2038,7 @@
         <v>0.3872527472527473</v>
       </c>
       <c r="K34" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35">
@@ -2179,7 +2179,7 @@
         <v>0.6289256198347107</v>
       </c>
       <c r="K37" t="n">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="38">
@@ -2367,7 +2367,7 @@
         <v>0.6721208218283828</v>
       </c>
       <c r="K41" t="n">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="42">
@@ -2414,7 +2414,7 @@
         <v>0.7497256675423136</v>
       </c>
       <c r="K42" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="43">
@@ -2461,7 +2461,7 @@
         <v>1.002547635574595</v>
       </c>
       <c r="K43" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="44">
@@ -2555,7 +2555,7 @@
         <v>0.9336609119860264</v>
       </c>
       <c r="K45" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="46">
@@ -2743,7 +2743,7 @@
         <v>0.4633064836019187</v>
       </c>
       <c r="K49" t="n">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="50">
@@ -2790,7 +2790,7 @@
         <v>0.5239015983534212</v>
       </c>
       <c r="K50" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51">
@@ -2978,7 +2978,7 @@
         <v>0.8442108619231682</v>
       </c>
       <c r="K54" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="55">
@@ -3072,7 +3072,7 @@
         <v>0.8047239535282148</v>
       </c>
       <c r="K56" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="57">
@@ -3166,23 +3166,23 @@
         <v>0.6110282560369189</v>
       </c>
       <c r="K58" t="n">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3204,32 +3204,32 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1169.33</v>
+        <v>1200</v>
       </c>
       <c r="I59" t="n">
-        <v>1219.17</v>
+        <v>3019.91</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9591197289959561</v>
+        <v>0.3973628353162843</v>
       </c>
       <c r="K59" t="n">
-        <v>859</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3251,32 +3251,32 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>3019.91</v>
+        <v>645.48</v>
       </c>
       <c r="J60" t="n">
-        <v>0.3973628353162843</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>30</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3298,16 +3298,16 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>832.5</v>
+        <v>2681.43</v>
       </c>
       <c r="I61" t="n">
-        <v>14915.22</v>
+        <v>2809.29</v>
       </c>
       <c r="J61" t="n">
-        <v>0.055815469030963</v>
+        <v>0.9544867208440566</v>
       </c>
       <c r="K61" t="n">
-        <v>800</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62">
@@ -3345,16 +3345,16 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>10700</v>
+        <v>832.5</v>
       </c>
       <c r="I62" t="n">
         <v>14915.22</v>
       </c>
       <c r="J62" t="n">
-        <v>0.7173880103679329</v>
+        <v>0.055815469030963</v>
       </c>
       <c r="K62" t="n">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="63">
@@ -3392,32 +3392,32 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>13052.5</v>
+        <v>10700</v>
       </c>
       <c r="I63" t="n">
         <v>14915.22</v>
       </c>
       <c r="J63" t="n">
-        <v>0.8751128042362097</v>
+        <v>0.7173880103679329</v>
       </c>
       <c r="K63" t="n">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3439,32 +3439,32 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>12670.32</v>
+        <v>13052.5</v>
       </c>
       <c r="I64" t="n">
-        <v>13195.48</v>
+        <v>14915.22</v>
       </c>
       <c r="J64" t="n">
-        <v>0.9602015235520042</v>
+        <v>0.8751128042362097</v>
       </c>
       <c r="K64" t="n">
-        <v>857</v>
+        <v>807</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3486,32 +3486,32 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>10450.25</v>
+        <v>12670.32</v>
       </c>
       <c r="I65" t="n">
-        <v>15384.99</v>
+        <v>13195.48</v>
       </c>
       <c r="J65" t="n">
-        <v>0.6792497102695549</v>
+        <v>0.9602015235520042</v>
       </c>
       <c r="K65" t="n">
-        <v>403</v>
+        <v>858</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3533,32 +3533,32 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>12000</v>
+        <v>10450.25</v>
       </c>
       <c r="I66" t="n">
-        <v>15342</v>
+        <v>15384.99</v>
       </c>
       <c r="J66" t="n">
-        <v>0.7821666014861165</v>
+        <v>0.6792497102695549</v>
       </c>
       <c r="K66" t="n">
-        <v>2</v>
+        <v>402</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3580,32 +3580,32 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="I67" t="n">
-        <v>18101.66</v>
+        <v>15342</v>
       </c>
       <c r="J67" t="n">
-        <v>0.8010315076075896</v>
+        <v>0.7821666014861165</v>
       </c>
       <c r="K67" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3627,16 +3627,16 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>13803.44</v>
+        <v>14500</v>
       </c>
       <c r="I68" t="n">
-        <v>14915.22</v>
+        <v>18101.66</v>
       </c>
       <c r="J68" t="n">
-        <v>0.9254600334423496</v>
+        <v>0.8010315076075896</v>
       </c>
       <c r="K68" t="n">
-        <v>544</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69">
@@ -3674,42 +3674,42 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>12990.49</v>
+        <v>13803.44</v>
       </c>
       <c r="I69" t="n">
         <v>14915.22</v>
       </c>
       <c r="J69" t="n">
-        <v>0.8709553060564981</v>
+        <v>0.9254600334423496</v>
       </c>
       <c r="K69" t="n">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3717,36 +3717,36 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>12</v>
+        <v>12990.49</v>
       </c>
       <c r="I70" t="n">
-        <v>15</v>
+        <v>14915.22</v>
       </c>
       <c r="J70" t="n">
-        <v>0.8</v>
+        <v>0.8709553060564981</v>
       </c>
       <c r="K70" t="n">
-        <v>194</v>
+        <v>544</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3764,36 +3764,36 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>m2</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>16.84</v>
+        <v>12</v>
       </c>
       <c r="I71" t="n">
-        <v>17.73</v>
+        <v>15</v>
       </c>
       <c r="J71" t="n">
-        <v>0.9498025944726453</v>
+        <v>0.8</v>
       </c>
       <c r="K71" t="n">
-        <v>762</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3811,36 +3811,36 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>14.12</v>
+        <v>16.84</v>
       </c>
       <c r="I72" t="n">
-        <v>14.69</v>
+        <v>17.73</v>
       </c>
       <c r="J72" t="n">
-        <v>0.9611980939414567</v>
+        <v>0.9498025944726453</v>
       </c>
       <c r="K72" t="n">
-        <v>856</v>
+        <v>763</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3858,36 +3858,36 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>16</v>
+        <v>14.12</v>
       </c>
       <c r="I73" t="n">
-        <v>17.92</v>
+        <v>14.69</v>
       </c>
       <c r="J73" t="n">
-        <v>0.8928571428571428</v>
+        <v>0.9611980939414567</v>
       </c>
       <c r="K73" t="n">
-        <v>28</v>
+        <v>857</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>15.14</v>
+        <v>16</v>
       </c>
       <c r="I74" t="n">
-        <v>15</v>
+        <v>17.92</v>
       </c>
       <c r="J74" t="n">
-        <v>1.009333333333333</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="K74" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3952,26 +3952,26 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>m2/capita</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>13.58</v>
+        <v>15.14</v>
       </c>
       <c r="I75" t="n">
-        <v>14.79</v>
+        <v>15</v>
       </c>
       <c r="J75" t="n">
-        <v>0.9181879648411089</v>
+        <v>1.009333333333333</v>
       </c>
       <c r="K75" t="n">
-        <v>329</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -3999,36 +3999,36 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/capita</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>48</v>
+        <v>13.58</v>
       </c>
       <c r="I76" t="n">
-        <v>49</v>
+        <v>14.79</v>
       </c>
       <c r="J76" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.9181879648411089</v>
       </c>
       <c r="K76" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4046,36 +4046,36 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>26.38</v>
+        <v>48</v>
       </c>
       <c r="I77" t="n">
-        <v>39.94</v>
+        <v>49</v>
       </c>
       <c r="J77" t="n">
-        <v>0.6604907361041562</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="K77" t="n">
-        <v>750</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4093,36 +4093,36 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>36.18</v>
+        <v>26.38</v>
       </c>
       <c r="I78" t="n">
-        <v>45.19</v>
+        <v>39.94</v>
       </c>
       <c r="J78" t="n">
-        <v>0.8006196061075459</v>
+        <v>0.6604907361041562</v>
       </c>
       <c r="K78" t="n">
-        <v>855</v>
+        <v>751</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4144,22 +4144,22 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>30</v>
+        <v>36.18</v>
       </c>
       <c r="I79" t="n">
-        <v>45.4</v>
+        <v>45.19</v>
       </c>
       <c r="J79" t="n">
-        <v>0.6607929515418502</v>
+        <v>0.8006196061075459</v>
       </c>
       <c r="K79" t="n">
-        <v>232</v>
+        <v>856</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>based on LED</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4187,36 +4187,36 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I80" t="n">
         <v>45.4</v>
       </c>
       <c r="J80" t="n">
-        <v>0.7048458149779736</v>
+        <v>0.6607929515418502</v>
       </c>
       <c r="K80" t="n">
-        <v>96</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>based on LED</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4238,32 +4238,32 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>43.43</v>
+        <v>32</v>
       </c>
       <c r="I81" t="n">
-        <v>44.8</v>
+        <v>45.4</v>
       </c>
       <c r="J81" t="n">
-        <v>0.9694196428571429</v>
+        <v>0.7048458149779736</v>
       </c>
       <c r="K81" t="n">
-        <v>15</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4285,32 +4285,32 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>39.47</v>
+        <v>43.43</v>
       </c>
       <c r="I82" t="n">
-        <v>41.7</v>
+        <v>44.8</v>
       </c>
       <c r="J82" t="n">
-        <v>0.9465227817745803</v>
+        <v>0.9694196428571429</v>
       </c>
       <c r="K82" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4328,36 +4328,36 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>41.49</v>
+        <v>39.47</v>
       </c>
       <c r="I83" t="n">
-        <v>39.94</v>
+        <v>41.7</v>
       </c>
       <c r="J83" t="n">
-        <v>1.038808212318478</v>
+        <v>0.9465227817745803</v>
       </c>
       <c r="K83" t="n">
-        <v>541</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4375,46 +4375,46 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>41.17</v>
+        <v>41.49</v>
       </c>
       <c r="I84" t="n">
-        <v>45.4</v>
+        <v>39.94</v>
       </c>
       <c r="J84" t="n">
-        <v>0.9068281938325992</v>
+        <v>1.038808212318478</v>
       </c>
       <c r="K84" t="n">
-        <v>139</v>
+        <v>540</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4422,36 +4422,36 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>61.01</v>
+        <v>41.17</v>
       </c>
       <c r="I85" t="n">
-        <v>387</v>
+        <v>45.4</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1576485788113695</v>
+        <v>0.9068281938325992</v>
       </c>
       <c r="K85" t="n">
-        <v>225</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4473,32 +4473,32 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>260.25</v>
+        <v>61.01</v>
       </c>
       <c r="I86" t="n">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="J86" t="n">
-        <v>0.75</v>
+        <v>0.1576485788113695</v>
       </c>
       <c r="K86" t="n">
-        <v>764</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4520,32 +4520,32 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>84.09</v>
+        <v>260.25</v>
       </c>
       <c r="I87" t="n">
-        <v>322.42</v>
+        <v>347</v>
       </c>
       <c r="J87" t="n">
-        <v>0.2608088828236462</v>
+        <v>0.75</v>
       </c>
       <c r="K87" t="n">
-        <v>861</v>
+        <v>765</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4563,36 +4563,36 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>kcal/cap/day</t>
+          <t>kcal meat/cap/day</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>155.01</v>
+        <v>84.09</v>
       </c>
       <c r="I88" t="n">
-        <v>387</v>
+        <v>322.42</v>
       </c>
       <c r="J88" t="n">
-        <v>0.4005426356589147</v>
+        <v>0.2608088828236462</v>
       </c>
       <c r="K88" t="n">
-        <v>49</v>
+        <v>862</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4610,36 +4610,36 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>kcal/cap/day</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>211.34</v>
+        <v>155.01</v>
       </c>
       <c r="I89" t="n">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="J89" t="n">
-        <v>0.6090489913544669</v>
+        <v>0.4005426356589147</v>
       </c>
       <c r="K89" t="n">
-        <v>556</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4661,32 +4661,32 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>64.59</v>
+        <v>211.34</v>
       </c>
       <c r="I90" t="n">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1987384615384616</v>
+        <v>0.6090489913544669</v>
       </c>
       <c r="K90" t="n">
-        <v>154</v>
+        <v>555</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>van de Ven et al. (2018)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Enthusiastic profile</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4704,26 +4704,26 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>kcal/cap/day</t>
+          <t>kcal meat/cap/day</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>64.59</v>
       </c>
       <c r="I91" t="n">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>0.1987384615384616</v>
       </c>
       <c r="K91" t="n">
-        <v>372</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>van de Ven et al. (2018)</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>Enthusiastic profile</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>food waste per capita and year</t>
+          <t>meat consumption per capita and day</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4751,36 +4751,36 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>kg/cap/year</t>
+          <t>kcal/cap/day</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>58.95</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>131</v>
+        <v>347</v>
       </c>
       <c r="J92" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>766</v>
+        <v>371</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4802,32 +4802,32 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>46</v>
+        <v>58.95</v>
       </c>
       <c r="I93" t="n">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="J93" t="n">
-        <v>0.4181818181818182</v>
+        <v>0.45</v>
       </c>
       <c r="K93" t="n">
-        <v>51</v>
+        <v>767</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4849,32 +4849,32 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>65.5</v>
+        <v>46</v>
       </c>
       <c r="I94" t="n">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="J94" t="n">
-        <v>0.5</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="K94" t="n">
-        <v>558</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4905,6 +4905,53 @@
         <v>0.5</v>
       </c>
       <c r="K95" t="n">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>UBA (2021)</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>GreenSupreme</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>food waste per capita and year</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>kg/cap/year</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="I96" t="n">
+        <v>131</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K96" t="n">
         <v>151</v>
       </c>
     </row>

--- a/output/boxplot_historic_table.xlsx
+++ b/output/boxplot_historic_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,10 +669,10 @@
         <v>36.78</v>
       </c>
       <c r="I5" t="n">
-        <v>86.55</v>
+        <v>74.36</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4249566724436742</v>
+        <v>0.4946207638515331</v>
       </c>
       <c r="K5" t="n">
         <v>854</v>
@@ -916,17 +916,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>van Sluisveld et al. (2020)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Europe+UA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RegChange</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -948,42 +948,42 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>56.31</v>
+        <v>54.07</v>
       </c>
       <c r="I11" t="n">
-        <v>94.14</v>
+        <v>102.96</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5981516889738687</v>
+        <v>0.5251554001554002</v>
       </c>
       <c r="K11" t="n">
-        <v>673</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>van Sluisveld et al. (2020)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>Europe+UA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>RegChange</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>steel production per capita and year</t>
+          <t>final energy demand per capita and year</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -991,36 +991,36 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.08</v>
+        <v>56.31</v>
       </c>
       <c r="I12" t="n">
-        <v>0.22</v>
+        <v>94.14</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.5981516889738687</v>
       </c>
       <c r="K12" t="n">
-        <v>205</v>
+        <v>673</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Barrett et al. (2022)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Transform</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1042,32 +1042,32 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I13" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="K13" t="n">
-        <v>249</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>Barrett et al. (2022)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>Transform</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1089,32 +1089,32 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.29</v>
+        <v>0.06</v>
       </c>
       <c r="I14" t="n">
-        <v>0.34</v>
+        <v>0.11</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8529411764705881</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="K14" t="n">
-        <v>775</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1136,32 +1136,32 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="I15" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="J15" t="n">
-        <v>0.96875</v>
+        <v>0.8529411764705881</v>
       </c>
       <c r="K15" t="n">
-        <v>841</v>
+        <v>775</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1183,32 +1183,32 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="I16" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2592592592592592</v>
+        <v>0.96875</v>
       </c>
       <c r="K16" t="n">
-        <v>414</v>
+        <v>841</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1230,32 +1230,32 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="K17" t="n">
-        <v>54</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1277,32 +1277,32 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="I18" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8823529411764705</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="K18" t="n">
-        <v>561</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="I19" t="n">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8181818181818181</v>
+        <v>0.8823529411764705</v>
       </c>
       <c r="K19" t="n">
-        <v>347</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1371,32 +1371,32 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.44</v>
+        <v>0.18</v>
       </c>
       <c r="I20" t="n">
-        <v>0.48</v>
+        <v>0.22</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9166666666666667</v>
+        <v>0.8181818181818181</v>
       </c>
       <c r="K20" t="n">
-        <v>144</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>steel production per capita and year</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1418,32 +1418,32 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.06</v>
+        <v>0.44</v>
       </c>
       <c r="I21" t="n">
-        <v>0.26</v>
+        <v>0.48</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.9166666666666667</v>
       </c>
       <c r="K21" t="n">
-        <v>209</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Barrett et al. (2022)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Transform</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1465,32 +1465,32 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I22" t="n">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K22" t="n">
-        <v>253</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>Barrett et al. (2022)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>Transform</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1512,32 +1512,32 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="I23" t="n">
-        <v>0.37</v>
+        <v>0.14</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K23" t="n">
-        <v>771</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1559,32 +1559,32 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I24" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5588235294117647</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="K24" t="n">
-        <v>864</v>
+        <v>771</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1606,32 +1606,32 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="I25" t="n">
         <v>0.34</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="K25" t="n">
-        <v>419</v>
+        <v>864</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1653,32 +1653,32 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.33</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>0.66</v>
+        <v>0.34</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="K26" t="n">
-        <v>27</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1700,32 +1700,32 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="I27" t="n">
-        <v>0.37</v>
+        <v>0.66</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5945945945945946</v>
+        <v>0.5</v>
       </c>
       <c r="K27" t="n">
-        <v>559</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1747,32 +1747,32 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="I28" t="n">
-        <v>0.26</v>
+        <v>0.37</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4615384615384615</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="K28" t="n">
-        <v>350</v>
+        <v>559</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1794,32 +1794,32 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="I29" t="n">
-        <v>0.41</v>
+        <v>0.26</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5365853658536586</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="K29" t="n">
-        <v>149</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1837,36 +1837,36 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>14.46</v>
+        <v>0.22</v>
       </c>
       <c r="I30" t="n">
-        <v>19.99</v>
+        <v>0.41</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7233616808404203</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="K30" t="n">
-        <v>221</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Barrett et al. (2022)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Transform</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1884,36 +1884,36 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>GJ/person/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>13.1</v>
+        <v>14.46</v>
       </c>
       <c r="I31" t="n">
-        <v>13.09</v>
+        <v>19.99</v>
       </c>
       <c r="J31" t="n">
-        <v>1.000763941940412</v>
+        <v>0.7233616808404203</v>
       </c>
       <c r="K31" t="n">
-        <v>245</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>Barrett et al. (2022)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>Transform</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1931,36 +1931,36 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>GJ/person/year</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>14.78</v>
+        <v>13.1</v>
       </c>
       <c r="I32" t="n">
-        <v>24.2</v>
+        <v>13.09</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6107438016528925</v>
+        <v>1.000763941940412</v>
       </c>
       <c r="K32" t="n">
-        <v>799</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1982,32 +1982,32 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>12.89</v>
+        <v>14.78</v>
       </c>
       <c r="I33" t="n">
-        <v>20.72</v>
+        <v>24.2</v>
       </c>
       <c r="J33" t="n">
-        <v>0.6221042471042472</v>
+        <v>0.6107438016528925</v>
       </c>
       <c r="K33" t="n">
-        <v>855</v>
+        <v>799</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2029,32 +2029,32 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>8.81</v>
+        <v>12.89</v>
       </c>
       <c r="I34" t="n">
-        <v>22.75</v>
+        <v>20.72</v>
       </c>
       <c r="J34" t="n">
-        <v>0.3872527472527473</v>
+        <v>0.6221042471042472</v>
       </c>
       <c r="K34" t="n">
-        <v>422</v>
+        <v>855</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2076,32 +2076,32 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>11.16</v>
+        <v>8.81</v>
       </c>
       <c r="I35" t="n">
-        <v>19.58</v>
+        <v>22.75</v>
       </c>
       <c r="J35" t="n">
-        <v>0.5699693564862105</v>
+        <v>0.3872527472527473</v>
       </c>
       <c r="K35" t="n">
-        <v>23</v>
+        <v>422</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2123,32 +2123,32 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>17.72</v>
+        <v>11.16</v>
       </c>
       <c r="I36" t="n">
-        <v>19.99</v>
+        <v>19.58</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8864432216108055</v>
+        <v>0.5699693564862105</v>
       </c>
       <c r="K36" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2170,32 +2170,32 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>15.22</v>
+        <v>17.72</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2</v>
+        <v>19.99</v>
       </c>
       <c r="J37" t="n">
-        <v>0.6289256198347107</v>
+        <v>0.8864432216108055</v>
       </c>
       <c r="K37" t="n">
-        <v>537</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2217,32 +2217,32 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>13.68</v>
+        <v>15.22</v>
       </c>
       <c r="I38" t="n">
-        <v>19.99</v>
+        <v>24.2</v>
       </c>
       <c r="J38" t="n">
-        <v>0.6843421710855428</v>
+        <v>0.6289256198347107</v>
       </c>
       <c r="K38" t="n">
-        <v>337</v>
+        <v>537</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2264,42 +2264,42 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>18.78</v>
+        <v>13.68</v>
       </c>
       <c r="I39" t="n">
-        <v>29.12</v>
+        <v>19.99</v>
       </c>
       <c r="J39" t="n">
-        <v>0.6449175824175825</v>
+        <v>0.6843421710855428</v>
       </c>
       <c r="K39" t="n">
-        <v>169</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2307,36 +2307,36 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>2533</v>
+        <v>18.78</v>
       </c>
       <c r="I40" t="n">
-        <v>5091.46</v>
+        <v>31.36</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4974997348501216</v>
+        <v>0.5988520408163266</v>
       </c>
       <c r="K40" t="n">
-        <v>212</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2358,32 +2358,32 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>3809.48</v>
+        <v>2533</v>
       </c>
       <c r="I41" t="n">
-        <v>5667.85</v>
+        <v>5091.46</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6721208218283828</v>
+        <v>0.4974997348501216</v>
       </c>
       <c r="K41" t="n">
-        <v>783</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2405,32 +2405,32 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>5411.16</v>
+        <v>3809.48</v>
       </c>
       <c r="I42" t="n">
-        <v>7217.52</v>
+        <v>5667.85</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7497256675423136</v>
+        <v>0.6721208218283828</v>
       </c>
       <c r="K42" t="n">
-        <v>861</v>
+        <v>783</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2452,32 +2452,32 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>5387.3</v>
+        <v>5411.16</v>
       </c>
       <c r="I43" t="n">
-        <v>5373.61</v>
+        <v>7217.52</v>
       </c>
       <c r="J43" t="n">
-        <v>1.002547635574595</v>
+        <v>0.7497256675423136</v>
       </c>
       <c r="K43" t="n">
-        <v>408</v>
+        <v>861</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2499,32 +2499,32 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1525</v>
+        <v>5387.3</v>
       </c>
       <c r="I44" t="n">
-        <v>2900.63</v>
+        <v>5373.61</v>
       </c>
       <c r="J44" t="n">
-        <v>0.5257478547763762</v>
+        <v>1.002547635574595</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2546,37 +2546,37 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>5291.85</v>
+        <v>1525</v>
       </c>
       <c r="I45" t="n">
-        <v>5667.85</v>
+        <v>2900.63</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9336609119860264</v>
+        <v>0.5257478547763762</v>
       </c>
       <c r="K45" t="n">
-        <v>553</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2593,37 +2593,37 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>5434.78</v>
+        <v>5291.85</v>
       </c>
       <c r="I46" t="n">
-        <v>5091.46</v>
+        <v>5667.85</v>
       </c>
       <c r="J46" t="n">
-        <v>1.067430560192951</v>
+        <v>0.9336609119860264</v>
       </c>
       <c r="K46" t="n">
-        <v>343</v>
+        <v>553</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2640,42 +2640,42 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>8122.17</v>
+        <v>5434.78</v>
       </c>
       <c r="I47" t="n">
-        <v>8322.120000000001</v>
+        <v>5091.46</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9759736701705815</v>
+        <v>1.067430560192951</v>
       </c>
       <c r="K47" t="n">
-        <v>158</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2683,36 +2683,36 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>5947</v>
+        <v>8122.17</v>
       </c>
       <c r="I48" t="n">
-        <v>13007.23</v>
+        <v>8322.120000000001</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4572072608849079</v>
+        <v>0.9759736701705815</v>
       </c>
       <c r="K48" t="n">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2734,32 +2734,32 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>4380.03</v>
+        <v>5947</v>
       </c>
       <c r="I49" t="n">
-        <v>9453.85</v>
+        <v>13007.23</v>
       </c>
       <c r="J49" t="n">
-        <v>0.4633064836019187</v>
+        <v>0.4572072608849079</v>
       </c>
       <c r="K49" t="n">
-        <v>859</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2781,32 +2781,32 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>5757.71</v>
+        <v>4380.03</v>
       </c>
       <c r="I50" t="n">
-        <v>10990.06</v>
+        <v>9453.85</v>
       </c>
       <c r="J50" t="n">
-        <v>0.5239015983534212</v>
+        <v>0.4633064836019187</v>
       </c>
       <c r="K50" t="n">
-        <v>405</v>
+        <v>859</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>based on LED</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2828,32 +2828,32 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>8434.379999999999</v>
+        <v>5757.71</v>
       </c>
       <c r="I51" t="n">
-        <v>11890.63</v>
+        <v>10990.06</v>
       </c>
       <c r="J51" t="n">
-        <v>0.7093299513987064</v>
+        <v>0.5239015983534212</v>
       </c>
       <c r="K51" t="n">
-        <v>95</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>based on LED</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2875,32 +2875,32 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>6240</v>
+        <v>8434.379999999999</v>
       </c>
       <c r="I52" t="n">
-        <v>12972.26</v>
+        <v>11890.63</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4810264364112344</v>
+        <v>0.7093299513987064</v>
       </c>
       <c r="K52" t="n">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2922,32 +2922,32 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>7350</v>
+        <v>6240</v>
       </c>
       <c r="I53" t="n">
-        <v>13007.23</v>
+        <v>12972.26</v>
       </c>
       <c r="J53" t="n">
-        <v>0.5650703493364844</v>
+        <v>0.4810264364112344</v>
       </c>
       <c r="K53" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2969,32 +2969,32 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>9214.57</v>
+        <v>7350</v>
       </c>
       <c r="I54" t="n">
-        <v>10915.01</v>
+        <v>13007.23</v>
       </c>
       <c r="J54" t="n">
-        <v>0.8442108619231682</v>
+        <v>0.5650703493364844</v>
       </c>
       <c r="K54" t="n">
-        <v>546</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3016,32 +3016,32 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>6731</v>
+        <v>9214.57</v>
       </c>
       <c r="I55" t="n">
-        <v>11890.63</v>
+        <v>10915.01</v>
       </c>
       <c r="J55" t="n">
-        <v>0.5660759774713368</v>
+        <v>0.8442108619231682</v>
       </c>
       <c r="K55" t="n">
-        <v>117</v>
+        <v>546</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>van de Ven et al. (2018)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Enthusiastic profile</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3063,32 +3063,32 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>8783.57</v>
+        <v>6731</v>
       </c>
       <c r="I56" t="n">
-        <v>10915.01</v>
+        <v>11890.63</v>
       </c>
       <c r="J56" t="n">
-        <v>0.8047239535282148</v>
+        <v>0.5660759774713368</v>
       </c>
       <c r="K56" t="n">
-        <v>388</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>van de Ven et al. (2018)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>Enthusiastic profile</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -3110,32 +3110,32 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1423.5</v>
+        <v>8783.57</v>
       </c>
       <c r="I57" t="n">
-        <v>3019.91</v>
+        <v>10915.01</v>
       </c>
       <c r="J57" t="n">
-        <v>0.4713716633939422</v>
+        <v>0.8047239535282148</v>
       </c>
       <c r="K57" t="n">
-        <v>178</v>
+        <v>388</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3157,32 +3157,32 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1520</v>
+        <v>1423.5</v>
       </c>
       <c r="I58" t="n">
-        <v>2487.61</v>
+        <v>3019.91</v>
       </c>
       <c r="J58" t="n">
-        <v>0.6110282560369189</v>
+        <v>0.4713716633939422</v>
       </c>
       <c r="K58" t="n">
-        <v>805</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3204,32 +3204,32 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1200</v>
+        <v>1520</v>
       </c>
       <c r="I59" t="n">
-        <v>3019.91</v>
+        <v>2487.61</v>
       </c>
       <c r="J59" t="n">
-        <v>0.3973628353162843</v>
+        <v>0.6110282560369189</v>
       </c>
       <c r="K59" t="n">
-        <v>30</v>
+        <v>805</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3251,16 +3251,16 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I60" t="n">
-        <v>645.48</v>
+        <v>3019.91</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>0.3973628353162843</v>
       </c>
       <c r="K60" t="n">
-        <v>123</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
@@ -3298,32 +3298,32 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>2681.43</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>2809.29</v>
+        <v>645.48</v>
       </c>
       <c r="J61" t="n">
-        <v>0.9544867208440566</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3345,16 +3345,16 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>832.5</v>
+        <v>2681.43</v>
       </c>
       <c r="I62" t="n">
-        <v>14915.22</v>
+        <v>2809.29</v>
       </c>
       <c r="J62" t="n">
-        <v>0.055815469030963</v>
+        <v>0.9544867208440566</v>
       </c>
       <c r="K62" t="n">
-        <v>801</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63">
@@ -3392,16 +3392,16 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>10700</v>
+        <v>832.5</v>
       </c>
       <c r="I63" t="n">
         <v>14915.22</v>
       </c>
       <c r="J63" t="n">
-        <v>0.7173880103679329</v>
+        <v>0.055815469030963</v>
       </c>
       <c r="K63" t="n">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="64">
@@ -3439,32 +3439,32 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>13052.5</v>
+        <v>10700</v>
       </c>
       <c r="I64" t="n">
         <v>14915.22</v>
       </c>
       <c r="J64" t="n">
-        <v>0.8751128042362097</v>
+        <v>0.7173880103679329</v>
       </c>
       <c r="K64" t="n">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3486,32 +3486,32 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>12670.32</v>
+        <v>13052.5</v>
       </c>
       <c r="I65" t="n">
-        <v>13195.48</v>
+        <v>14915.22</v>
       </c>
       <c r="J65" t="n">
-        <v>0.9602015235520042</v>
+        <v>0.8751128042362097</v>
       </c>
       <c r="K65" t="n">
-        <v>858</v>
+        <v>807</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3533,32 +3533,32 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>10450.25</v>
+        <v>12670.32</v>
       </c>
       <c r="I66" t="n">
-        <v>15384.99</v>
+        <v>13195.48</v>
       </c>
       <c r="J66" t="n">
-        <v>0.6792497102695549</v>
+        <v>0.9602015235520042</v>
       </c>
       <c r="K66" t="n">
-        <v>402</v>
+        <v>858</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3580,32 +3580,32 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>12000</v>
+        <v>10450.25</v>
       </c>
       <c r="I67" t="n">
-        <v>15342</v>
+        <v>15384.99</v>
       </c>
       <c r="J67" t="n">
-        <v>0.7821666014861165</v>
+        <v>0.6792497102695549</v>
       </c>
       <c r="K67" t="n">
-        <v>2</v>
+        <v>402</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3627,32 +3627,32 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="I68" t="n">
-        <v>18101.66</v>
+        <v>15342</v>
       </c>
       <c r="J68" t="n">
-        <v>0.8010315076075896</v>
+        <v>0.7821666014861165</v>
       </c>
       <c r="K68" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3674,16 +3674,16 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>13803.44</v>
+        <v>14500</v>
       </c>
       <c r="I69" t="n">
-        <v>14915.22</v>
+        <v>18101.66</v>
       </c>
       <c r="J69" t="n">
-        <v>0.9254600334423496</v>
+        <v>0.8010315076075896</v>
       </c>
       <c r="K69" t="n">
-        <v>543</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
@@ -3721,42 +3721,42 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>12990.49</v>
+        <v>13803.44</v>
       </c>
       <c r="I70" t="n">
         <v>14915.22</v>
       </c>
       <c r="J70" t="n">
-        <v>0.8709553060564981</v>
+        <v>0.9254600334423496</v>
       </c>
       <c r="K70" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3764,36 +3764,36 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>12</v>
+        <v>12990.49</v>
       </c>
       <c r="I71" t="n">
-        <v>15</v>
+        <v>14915.22</v>
       </c>
       <c r="J71" t="n">
-        <v>0.8</v>
+        <v>0.8709553060564981</v>
       </c>
       <c r="K71" t="n">
-        <v>194</v>
+        <v>544</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3811,36 +3811,36 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>m2</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>16.84</v>
+        <v>12</v>
       </c>
       <c r="I72" t="n">
-        <v>17.73</v>
+        <v>15</v>
       </c>
       <c r="J72" t="n">
-        <v>0.9498025944726453</v>
+        <v>0.8</v>
       </c>
       <c r="K72" t="n">
-        <v>763</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3858,36 +3858,36 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>14.12</v>
+        <v>16.84</v>
       </c>
       <c r="I73" t="n">
-        <v>14.69</v>
+        <v>17.73</v>
       </c>
       <c r="J73" t="n">
-        <v>0.9611980939414567</v>
+        <v>0.9498025944726453</v>
       </c>
       <c r="K73" t="n">
-        <v>857</v>
+        <v>763</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3905,36 +3905,36 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>16</v>
+        <v>14.12</v>
       </c>
       <c r="I74" t="n">
-        <v>17.92</v>
+        <v>14.69</v>
       </c>
       <c r="J74" t="n">
-        <v>0.8928571428571428</v>
+        <v>0.9611980939414567</v>
       </c>
       <c r="K74" t="n">
-        <v>28</v>
+        <v>857</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3956,22 +3956,22 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>15.14</v>
+        <v>16</v>
       </c>
       <c r="I75" t="n">
-        <v>15</v>
+        <v>17.92</v>
       </c>
       <c r="J75" t="n">
-        <v>1.009333333333333</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="K75" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3999,26 +3999,26 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>m2/capita</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>13.58</v>
+        <v>15.14</v>
       </c>
       <c r="I76" t="n">
-        <v>14.79</v>
+        <v>15</v>
       </c>
       <c r="J76" t="n">
-        <v>0.9181879648411089</v>
+        <v>1.009333333333333</v>
       </c>
       <c r="K76" t="n">
-        <v>329</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4046,36 +4046,36 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/capita</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>48</v>
+        <v>13.58</v>
       </c>
       <c r="I77" t="n">
-        <v>49</v>
+        <v>14.79</v>
       </c>
       <c r="J77" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.9181879648411089</v>
       </c>
       <c r="K77" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4093,36 +4093,36 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>26.38</v>
+        <v>48</v>
       </c>
       <c r="I78" t="n">
-        <v>39.94</v>
+        <v>49</v>
       </c>
       <c r="J78" t="n">
-        <v>0.6604907361041562</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="K78" t="n">
-        <v>751</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4140,36 +4140,36 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>36.18</v>
+        <v>26.38</v>
       </c>
       <c r="I79" t="n">
-        <v>45.19</v>
+        <v>39.94</v>
       </c>
       <c r="J79" t="n">
-        <v>0.8006196061075459</v>
+        <v>0.6604907361041562</v>
       </c>
       <c r="K79" t="n">
-        <v>856</v>
+        <v>751</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>30</v>
+        <v>36.18</v>
       </c>
       <c r="I80" t="n">
-        <v>45.4</v>
+        <v>45.19</v>
       </c>
       <c r="J80" t="n">
-        <v>0.6607929515418502</v>
+        <v>0.8006196061075459</v>
       </c>
       <c r="K80" t="n">
-        <v>232</v>
+        <v>856</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>based on LED</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4234,36 +4234,36 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I81" t="n">
         <v>45.4</v>
       </c>
       <c r="J81" t="n">
-        <v>0.7048458149779736</v>
+        <v>0.6607929515418502</v>
       </c>
       <c r="K81" t="n">
-        <v>96</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>based on LED</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4285,32 +4285,32 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>43.43</v>
+        <v>32</v>
       </c>
       <c r="I82" t="n">
-        <v>44.8</v>
+        <v>45.4</v>
       </c>
       <c r="J82" t="n">
-        <v>0.9694196428571429</v>
+        <v>0.7048458149779736</v>
       </c>
       <c r="K82" t="n">
-        <v>15</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4332,32 +4332,32 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>39.47</v>
+        <v>43.43</v>
       </c>
       <c r="I83" t="n">
-        <v>41.7</v>
+        <v>44.8</v>
       </c>
       <c r="J83" t="n">
-        <v>0.9465227817745803</v>
+        <v>0.9694196428571429</v>
       </c>
       <c r="K83" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4375,36 +4375,36 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>41.49</v>
+        <v>39.47</v>
       </c>
       <c r="I84" t="n">
-        <v>39.94</v>
+        <v>41.7</v>
       </c>
       <c r="J84" t="n">
-        <v>1.038808212318478</v>
+        <v>0.9465227817745803</v>
       </c>
       <c r="K84" t="n">
-        <v>540</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4422,46 +4422,46 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>41.17</v>
+        <v>41.49</v>
       </c>
       <c r="I85" t="n">
-        <v>45.4</v>
+        <v>39.94</v>
       </c>
       <c r="J85" t="n">
-        <v>0.9068281938325992</v>
+        <v>1.038808212318478</v>
       </c>
       <c r="K85" t="n">
-        <v>139</v>
+        <v>540</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -4469,36 +4469,36 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>61.01</v>
+        <v>41.17</v>
       </c>
       <c r="I86" t="n">
-        <v>387</v>
+        <v>45.4</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1576485788113695</v>
+        <v>0.9068281938325992</v>
       </c>
       <c r="K86" t="n">
-        <v>225</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4520,32 +4520,32 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>260.25</v>
+        <v>61.01</v>
       </c>
       <c r="I87" t="n">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="J87" t="n">
-        <v>0.75</v>
+        <v>0.1576485788113695</v>
       </c>
       <c r="K87" t="n">
-        <v>765</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4567,32 +4567,32 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>84.09</v>
+        <v>260.25</v>
       </c>
       <c r="I88" t="n">
-        <v>322.42</v>
+        <v>347</v>
       </c>
       <c r="J88" t="n">
-        <v>0.2608088828236462</v>
+        <v>0.75</v>
       </c>
       <c r="K88" t="n">
-        <v>862</v>
+        <v>765</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4610,36 +4610,36 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>kcal/cap/day</t>
+          <t>kcal meat/cap/day</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>155.01</v>
+        <v>84.09</v>
       </c>
       <c r="I89" t="n">
-        <v>387</v>
+        <v>322.42</v>
       </c>
       <c r="J89" t="n">
-        <v>0.4005426356589147</v>
+        <v>0.2608088828236462</v>
       </c>
       <c r="K89" t="n">
-        <v>49</v>
+        <v>862</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4657,36 +4657,36 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>kcal/cap/day</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>211.34</v>
+        <v>155.01</v>
       </c>
       <c r="I90" t="n">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="J90" t="n">
-        <v>0.6090489913544669</v>
+        <v>0.4005426356589147</v>
       </c>
       <c r="K90" t="n">
-        <v>555</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4708,32 +4708,32 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>64.59</v>
+        <v>211.34</v>
       </c>
       <c r="I91" t="n">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1987384615384616</v>
+        <v>0.6090489913544669</v>
       </c>
       <c r="K91" t="n">
-        <v>154</v>
+        <v>555</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>van de Ven et al. (2018)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Enthusiastic profile</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4751,26 +4751,26 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>kcal/cap/day</t>
+          <t>kcal meat/cap/day</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>64.59</v>
       </c>
       <c r="I92" t="n">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>0.1987384615384616</v>
       </c>
       <c r="K92" t="n">
-        <v>371</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>van de Ven et al. (2018)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>Enthusiastic profile</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>food waste per capita and year</t>
+          <t>meat consumption per capita and day</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4798,36 +4798,36 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>kg/cap/year</t>
+          <t>kcal/cap/day</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>58.95</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>131</v>
+        <v>347</v>
       </c>
       <c r="J93" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>767</v>
+        <v>371</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4849,32 +4849,32 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>46</v>
+        <v>58.95</v>
       </c>
       <c r="I94" t="n">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="J94" t="n">
-        <v>0.4181818181818182</v>
+        <v>0.45</v>
       </c>
       <c r="K94" t="n">
-        <v>51</v>
+        <v>767</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4896,32 +4896,32 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>65.5</v>
+        <v>46</v>
       </c>
       <c r="I95" t="n">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="J95" t="n">
-        <v>0.5</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="K95" t="n">
-        <v>557</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4952,6 +4952,53 @@
         <v>0.5</v>
       </c>
       <c r="K96" t="n">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>UBA (2021)</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>GreenSupreme</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>food waste per capita and year</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>kg/cap/year</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="I97" t="n">
+        <v>131</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K97" t="n">
         <v>151</v>
       </c>
     </row>

--- a/output/boxplot_historic_table.xlsx
+++ b/output/boxplot_historic_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>Ragwitz et al. (2023)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Nachfrage+Tech</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -948,32 +948,32 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>54.07</v>
+        <v>60.08</v>
       </c>
       <c r="I11" t="n">
         <v>102.96</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5251554001554002</v>
+        <v>0.5835275835275835</v>
       </c>
       <c r="K11" t="n">
-        <v>106</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>van Sluisveld et al. (2020)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Europe+UA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RegChange</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -995,42 +995,42 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>56.31</v>
+        <v>54.07</v>
       </c>
       <c r="I12" t="n">
-        <v>94.14</v>
+        <v>102.96</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5981516889738687</v>
+        <v>0.5251554001554002</v>
       </c>
       <c r="K12" t="n">
-        <v>673</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>van Sluisveld et al. (2020)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>Europe+UA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>RegChange</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>steel production per capita and year</t>
+          <t>final energy demand per capita and year</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1038,36 +1038,36 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.08</v>
+        <v>56.31</v>
       </c>
       <c r="I13" t="n">
-        <v>0.22</v>
+        <v>94.14</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.5981516889738687</v>
       </c>
       <c r="K13" t="n">
-        <v>205</v>
+        <v>673</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Barrett et al. (2022)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Transform</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1089,32 +1089,32 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I14" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="K14" t="n">
-        <v>249</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>Barrett et al. (2022)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>Transform</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1136,32 +1136,32 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.29</v>
+        <v>0.06</v>
       </c>
       <c r="I15" t="n">
-        <v>0.34</v>
+        <v>0.11</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8529411764705881</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="K15" t="n">
-        <v>775</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1183,32 +1183,32 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="I16" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="J16" t="n">
-        <v>0.96875</v>
+        <v>0.8529411764705881</v>
       </c>
       <c r="K16" t="n">
-        <v>841</v>
+        <v>775</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1230,32 +1230,32 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="I17" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2592592592592592</v>
+        <v>0.96875</v>
       </c>
       <c r="K17" t="n">
-        <v>414</v>
+        <v>841</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1277,32 +1277,32 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="K18" t="n">
-        <v>54</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="I19" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8823529411764705</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="K19" t="n">
-        <v>561</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1371,32 +1371,32 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="I20" t="n">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8181818181818181</v>
+        <v>0.8823529411764705</v>
       </c>
       <c r="K20" t="n">
-        <v>347</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1418,32 +1418,32 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.44</v>
+        <v>0.18</v>
       </c>
       <c r="I21" t="n">
-        <v>0.48</v>
+        <v>0.22</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9166666666666667</v>
+        <v>0.8181818181818181</v>
       </c>
       <c r="K21" t="n">
-        <v>144</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>steel production per capita and year</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1465,32 +1465,32 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.06</v>
+        <v>0.44</v>
       </c>
       <c r="I22" t="n">
-        <v>0.26</v>
+        <v>0.48</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.9166666666666667</v>
       </c>
       <c r="K22" t="n">
-        <v>209</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Barrett et al. (2022)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Transform</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1512,32 +1512,32 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I23" t="n">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K23" t="n">
-        <v>253</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>Barrett et al. (2022)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>Transform</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1559,32 +1559,32 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="I24" t="n">
-        <v>0.37</v>
+        <v>0.14</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K24" t="n">
-        <v>771</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1606,32 +1606,32 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I25" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5588235294117647</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="K25" t="n">
-        <v>864</v>
+        <v>771</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1653,32 +1653,32 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="I26" t="n">
         <v>0.34</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="K26" t="n">
-        <v>419</v>
+        <v>864</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1700,32 +1700,32 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.33</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>0.66</v>
+        <v>0.34</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="K27" t="n">
-        <v>27</v>
+        <v>419</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1747,32 +1747,32 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="I28" t="n">
-        <v>0.37</v>
+        <v>0.66</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5945945945945946</v>
+        <v>0.5</v>
       </c>
       <c r="K28" t="n">
-        <v>559</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1794,32 +1794,32 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="I29" t="n">
-        <v>0.26</v>
+        <v>0.37</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4615384615384615</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="K29" t="n">
-        <v>350</v>
+        <v>559</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1841,32 +1841,32 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="I30" t="n">
-        <v>0.41</v>
+        <v>0.26</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5365853658536586</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="K30" t="n">
-        <v>149</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1884,36 +1884,36 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>14.46</v>
+        <v>0.22</v>
       </c>
       <c r="I31" t="n">
-        <v>19.99</v>
+        <v>0.41</v>
       </c>
       <c r="J31" t="n">
-        <v>0.7233616808404203</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="K31" t="n">
-        <v>221</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Barrett et al. (2022)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Transform</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1931,36 +1931,36 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>GJ/person/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>13.1</v>
+        <v>14.46</v>
       </c>
       <c r="I32" t="n">
-        <v>13.09</v>
+        <v>19.99</v>
       </c>
       <c r="J32" t="n">
-        <v>1.000763941940412</v>
+        <v>0.7233616808404203</v>
       </c>
       <c r="K32" t="n">
-        <v>245</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>Barrett et al. (2022)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>Transform</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1978,36 +1978,36 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>GJ/person/year</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>14.78</v>
+        <v>13.1</v>
       </c>
       <c r="I33" t="n">
-        <v>24.2</v>
+        <v>13.09</v>
       </c>
       <c r="J33" t="n">
-        <v>0.6107438016528925</v>
+        <v>1.000763941940412</v>
       </c>
       <c r="K33" t="n">
-        <v>799</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2029,32 +2029,32 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>12.89</v>
+        <v>14.78</v>
       </c>
       <c r="I34" t="n">
-        <v>20.72</v>
+        <v>24.2</v>
       </c>
       <c r="J34" t="n">
-        <v>0.6221042471042472</v>
+        <v>0.6107438016528925</v>
       </c>
       <c r="K34" t="n">
-        <v>855</v>
+        <v>799</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2076,32 +2076,32 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>8.81</v>
+        <v>12.89</v>
       </c>
       <c r="I35" t="n">
-        <v>22.75</v>
+        <v>20.72</v>
       </c>
       <c r="J35" t="n">
-        <v>0.3872527472527473</v>
+        <v>0.6221042471042472</v>
       </c>
       <c r="K35" t="n">
-        <v>422</v>
+        <v>855</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2123,32 +2123,32 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>11.16</v>
+        <v>8.81</v>
       </c>
       <c r="I36" t="n">
-        <v>19.58</v>
+        <v>22.75</v>
       </c>
       <c r="J36" t="n">
-        <v>0.5699693564862105</v>
+        <v>0.3872527472527473</v>
       </c>
       <c r="K36" t="n">
-        <v>23</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2170,32 +2170,32 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>17.72</v>
+        <v>11.16</v>
       </c>
       <c r="I37" t="n">
-        <v>19.99</v>
+        <v>19.58</v>
       </c>
       <c r="J37" t="n">
-        <v>0.8864432216108055</v>
+        <v>0.5699693564862105</v>
       </c>
       <c r="K37" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2217,32 +2217,32 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>15.22</v>
+        <v>17.72</v>
       </c>
       <c r="I38" t="n">
-        <v>24.2</v>
+        <v>19.99</v>
       </c>
       <c r="J38" t="n">
-        <v>0.6289256198347107</v>
+        <v>0.8864432216108055</v>
       </c>
       <c r="K38" t="n">
-        <v>537</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2264,22 +2264,22 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>13.68</v>
+        <v>15.22</v>
       </c>
       <c r="I39" t="n">
-        <v>19.99</v>
+        <v>24.2</v>
       </c>
       <c r="J39" t="n">
-        <v>0.6843421710855428</v>
+        <v>0.6289256198347107</v>
       </c>
       <c r="K39" t="n">
-        <v>337</v>
+        <v>537</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>Ragwitz et al. (2023)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Nachfrage+Tech</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2303,7 +2303,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2311,22 +2311,22 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>18.78</v>
+        <v>24.47</v>
       </c>
       <c r="I40" t="n">
-        <v>31.36</v>
+        <v>29.12</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5988520408163266</v>
+        <v>0.840315934065934</v>
       </c>
       <c r="K40" t="n">
-        <v>169</v>
+        <v>438</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2336,17 +2336,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2354,46 +2354,46 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>2533</v>
+        <v>13.68</v>
       </c>
       <c r="I41" t="n">
-        <v>5091.46</v>
+        <v>19.99</v>
       </c>
       <c r="J41" t="n">
-        <v>0.4974997348501216</v>
+        <v>0.6843421710855428</v>
       </c>
       <c r="K41" t="n">
-        <v>212</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2401,36 +2401,36 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>3809.48</v>
+        <v>18.78</v>
       </c>
       <c r="I42" t="n">
-        <v>5667.85</v>
+        <v>31.36</v>
       </c>
       <c r="J42" t="n">
-        <v>0.6721208218283828</v>
+        <v>0.5988520408163266</v>
       </c>
       <c r="K42" t="n">
-        <v>783</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2452,32 +2452,32 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>5411.16</v>
+        <v>2533</v>
       </c>
       <c r="I43" t="n">
-        <v>7217.52</v>
+        <v>5091.46</v>
       </c>
       <c r="J43" t="n">
-        <v>0.7497256675423136</v>
+        <v>0.4974997348501216</v>
       </c>
       <c r="K43" t="n">
-        <v>861</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2499,32 +2499,32 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>5387.3</v>
+        <v>3809.48</v>
       </c>
       <c r="I44" t="n">
-        <v>5373.61</v>
+        <v>5667.85</v>
       </c>
       <c r="J44" t="n">
-        <v>1.002547635574595</v>
+        <v>0.6721208218283828</v>
       </c>
       <c r="K44" t="n">
-        <v>408</v>
+        <v>783</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2546,32 +2546,32 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1525</v>
+        <v>5411.16</v>
       </c>
       <c r="I45" t="n">
-        <v>2900.63</v>
+        <v>7217.52</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5257478547763762</v>
+        <v>0.7497256675423136</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>861</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2593,37 +2593,37 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>5291.85</v>
+        <v>5387.3</v>
       </c>
       <c r="I46" t="n">
-        <v>5667.85</v>
+        <v>5373.61</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9336609119860264</v>
+        <v>1.002547635574595</v>
       </c>
       <c r="K46" t="n">
-        <v>553</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2640,32 +2640,32 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>5434.78</v>
+        <v>1525</v>
       </c>
       <c r="I47" t="n">
-        <v>5091.46</v>
+        <v>2900.63</v>
       </c>
       <c r="J47" t="n">
-        <v>1.067430560192951</v>
+        <v>0.5257478547763762</v>
       </c>
       <c r="K47" t="n">
-        <v>343</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2687,22 +2687,22 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>8122.17</v>
+        <v>5291.85</v>
       </c>
       <c r="I48" t="n">
-        <v>8322.120000000001</v>
+        <v>5667.85</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9759736701705815</v>
+        <v>0.9336609119860264</v>
       </c>
       <c r="K48" t="n">
-        <v>158</v>
+        <v>553</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2730,46 +2730,46 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>5947</v>
+        <v>5434.78</v>
       </c>
       <c r="I49" t="n">
-        <v>13007.23</v>
+        <v>5091.46</v>
       </c>
       <c r="J49" t="n">
-        <v>0.4572072608849079</v>
+        <v>1.067430560192951</v>
       </c>
       <c r="K49" t="n">
-        <v>173</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2777,36 +2777,36 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>4380.03</v>
+        <v>8122.17</v>
       </c>
       <c r="I50" t="n">
-        <v>9453.85</v>
+        <v>8322.120000000001</v>
       </c>
       <c r="J50" t="n">
-        <v>0.4633064836019187</v>
+        <v>0.9759736701705815</v>
       </c>
       <c r="K50" t="n">
-        <v>859</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2828,32 +2828,32 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>5757.71</v>
+        <v>5947</v>
       </c>
       <c r="I51" t="n">
-        <v>10990.06</v>
+        <v>13007.23</v>
       </c>
       <c r="J51" t="n">
-        <v>0.5239015983534212</v>
+        <v>0.4572072608849079</v>
       </c>
       <c r="K51" t="n">
-        <v>405</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>based on LED</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2875,32 +2875,32 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>8434.379999999999</v>
+        <v>4380.03</v>
       </c>
       <c r="I52" t="n">
-        <v>11890.63</v>
+        <v>9453.85</v>
       </c>
       <c r="J52" t="n">
-        <v>0.7093299513987064</v>
+        <v>0.4633064836019187</v>
       </c>
       <c r="K52" t="n">
-        <v>95</v>
+        <v>859</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2922,32 +2922,32 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>6240</v>
+        <v>5757.71</v>
       </c>
       <c r="I53" t="n">
-        <v>12972.26</v>
+        <v>10990.06</v>
       </c>
       <c r="J53" t="n">
-        <v>0.4810264364112344</v>
+        <v>0.5239015983534212</v>
       </c>
       <c r="K53" t="n">
-        <v>4</v>
+        <v>405</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>based on LED</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2969,32 +2969,32 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>7350</v>
+        <v>8434.379999999999</v>
       </c>
       <c r="I54" t="n">
-        <v>13007.23</v>
+        <v>11890.63</v>
       </c>
       <c r="J54" t="n">
-        <v>0.5650703493364844</v>
+        <v>0.7093299513987064</v>
       </c>
       <c r="K54" t="n">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3016,32 +3016,32 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>9214.57</v>
+        <v>6240</v>
       </c>
       <c r="I55" t="n">
-        <v>10915.01</v>
+        <v>12972.26</v>
       </c>
       <c r="J55" t="n">
-        <v>0.8442108619231682</v>
+        <v>0.4810264364112344</v>
       </c>
       <c r="K55" t="n">
-        <v>546</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3063,22 +3063,22 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>6731</v>
+        <v>7350</v>
       </c>
       <c r="I56" t="n">
-        <v>11890.63</v>
+        <v>13007.23</v>
       </c>
       <c r="J56" t="n">
-        <v>0.5660759774713368</v>
+        <v>0.5650703493364844</v>
       </c>
       <c r="K56" t="n">
-        <v>117</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>van de Ven et al. (2018)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Enthusiastic profile</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3110,32 +3110,32 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>8783.57</v>
+        <v>9214.57</v>
       </c>
       <c r="I57" t="n">
         <v>10915.01</v>
       </c>
       <c r="J57" t="n">
-        <v>0.8047239535282148</v>
+        <v>0.8442108619231682</v>
       </c>
       <c r="K57" t="n">
-        <v>388</v>
+        <v>546</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3157,22 +3157,22 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1423.5</v>
+        <v>6731</v>
       </c>
       <c r="I58" t="n">
-        <v>3019.91</v>
+        <v>11890.63</v>
       </c>
       <c r="J58" t="n">
-        <v>0.4713716633939422</v>
+        <v>0.5660759774713368</v>
       </c>
       <c r="K58" t="n">
-        <v>178</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>van de Ven et al. (2018)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>Enthusiastic profile</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3204,22 +3204,22 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1520</v>
+        <v>8783.57</v>
       </c>
       <c r="I59" t="n">
-        <v>2487.61</v>
+        <v>10915.01</v>
       </c>
       <c r="J59" t="n">
-        <v>0.6110282560369189</v>
+        <v>0.8047239535282148</v>
       </c>
       <c r="K59" t="n">
-        <v>805</v>
+        <v>388</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3251,32 +3251,32 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1200</v>
+        <v>1423.5</v>
       </c>
       <c r="I60" t="n">
         <v>3019.91</v>
       </c>
       <c r="J60" t="n">
-        <v>0.3973628353162843</v>
+        <v>0.4713716633939422</v>
       </c>
       <c r="K60" t="n">
-        <v>30</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3298,32 +3298,32 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1520</v>
       </c>
       <c r="I61" t="n">
-        <v>645.48</v>
+        <v>2487.61</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>0.6110282560369189</v>
       </c>
       <c r="K61" t="n">
-        <v>123</v>
+        <v>805</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3345,32 +3345,32 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>2681.43</v>
+        <v>1200</v>
       </c>
       <c r="I62" t="n">
-        <v>2809.29</v>
+        <v>3019.91</v>
       </c>
       <c r="J62" t="n">
-        <v>0.9544867208440566</v>
+        <v>0.3973628353162843</v>
       </c>
       <c r="K62" t="n">
-        <v>124</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3392,32 +3392,32 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>832.5</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>14915.22</v>
+        <v>645.48</v>
       </c>
       <c r="J63" t="n">
-        <v>0.055815469030963</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>801</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3427,7 +3427,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3439,16 +3439,16 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>10700</v>
+        <v>2681.43</v>
       </c>
       <c r="I64" t="n">
-        <v>14915.22</v>
+        <v>2809.29</v>
       </c>
       <c r="J64" t="n">
-        <v>0.7173880103679329</v>
+        <v>0.9544867208440566</v>
       </c>
       <c r="K64" t="n">
-        <v>803</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65">
@@ -3486,32 +3486,32 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>13052.5</v>
+        <v>832.5</v>
       </c>
       <c r="I65" t="n">
         <v>14915.22</v>
       </c>
       <c r="J65" t="n">
-        <v>0.8751128042362097</v>
+        <v>0.055815469030963</v>
       </c>
       <c r="K65" t="n">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3533,32 +3533,32 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>12670.32</v>
+        <v>10700</v>
       </c>
       <c r="I66" t="n">
-        <v>13195.48</v>
+        <v>14915.22</v>
       </c>
       <c r="J66" t="n">
-        <v>0.9602015235520042</v>
+        <v>0.7173880103679329</v>
       </c>
       <c r="K66" t="n">
-        <v>858</v>
+        <v>803</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3580,32 +3580,32 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>10450.25</v>
+        <v>13052.5</v>
       </c>
       <c r="I67" t="n">
-        <v>15384.99</v>
+        <v>14915.22</v>
       </c>
       <c r="J67" t="n">
-        <v>0.6792497102695549</v>
+        <v>0.8751128042362097</v>
       </c>
       <c r="K67" t="n">
-        <v>402</v>
+        <v>807</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3627,32 +3627,32 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>12000</v>
+        <v>12670.32</v>
       </c>
       <c r="I68" t="n">
-        <v>15342</v>
+        <v>13195.48</v>
       </c>
       <c r="J68" t="n">
-        <v>0.7821666014861165</v>
+        <v>0.9602015235520042</v>
       </c>
       <c r="K68" t="n">
-        <v>2</v>
+        <v>858</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3674,32 +3674,32 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>14500</v>
+        <v>10450.25</v>
       </c>
       <c r="I69" t="n">
-        <v>18101.66</v>
+        <v>15384.99</v>
       </c>
       <c r="J69" t="n">
-        <v>0.8010315076075896</v>
+        <v>0.6792497102695549</v>
       </c>
       <c r="K69" t="n">
-        <v>32</v>
+        <v>402</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3721,32 +3721,32 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>13803.44</v>
+        <v>12000</v>
       </c>
       <c r="I70" t="n">
-        <v>14915.22</v>
+        <v>15342</v>
       </c>
       <c r="J70" t="n">
-        <v>0.9254600334423496</v>
+        <v>0.7821666014861165</v>
       </c>
       <c r="K70" t="n">
-        <v>543</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3768,42 +3768,42 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>12990.49</v>
+        <v>14500</v>
       </c>
       <c r="I71" t="n">
-        <v>14915.22</v>
+        <v>18101.66</v>
       </c>
       <c r="J71" t="n">
-        <v>0.8709553060564981</v>
+        <v>0.8010315076075896</v>
       </c>
       <c r="K71" t="n">
-        <v>544</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3811,26 +3811,26 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>12</v>
+        <v>13803.44</v>
       </c>
       <c r="I72" t="n">
-        <v>15</v>
+        <v>14915.22</v>
       </c>
       <c r="J72" t="n">
-        <v>0.8</v>
+        <v>0.9254600334423496</v>
       </c>
       <c r="K72" t="n">
-        <v>194</v>
+        <v>543</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3840,17 +3840,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -3858,36 +3858,36 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>m2</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>16.84</v>
+        <v>12990.49</v>
       </c>
       <c r="I73" t="n">
-        <v>17.73</v>
+        <v>14915.22</v>
       </c>
       <c r="J73" t="n">
-        <v>0.9498025944726453</v>
+        <v>0.8709553060564981</v>
       </c>
       <c r="K73" t="n">
-        <v>763</v>
+        <v>544</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3905,36 +3905,36 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>14.12</v>
+        <v>12</v>
       </c>
       <c r="I74" t="n">
-        <v>14.69</v>
+        <v>15</v>
       </c>
       <c r="J74" t="n">
-        <v>0.9611980939414567</v>
+        <v>0.8</v>
       </c>
       <c r="K74" t="n">
-        <v>857</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3952,36 +3952,36 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m2</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>16</v>
+        <v>16.84</v>
       </c>
       <c r="I75" t="n">
-        <v>17.92</v>
+        <v>17.73</v>
       </c>
       <c r="J75" t="n">
-        <v>0.8928571428571428</v>
+        <v>0.9498025944726453</v>
       </c>
       <c r="K75" t="n">
-        <v>28</v>
+        <v>763</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3999,36 +3999,36 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>15.14</v>
+        <v>14.12</v>
       </c>
       <c r="I76" t="n">
-        <v>15</v>
+        <v>14.69</v>
       </c>
       <c r="J76" t="n">
-        <v>1.009333333333333</v>
+        <v>0.9611980939414567</v>
       </c>
       <c r="K76" t="n">
-        <v>42</v>
+        <v>857</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4046,26 +4046,26 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>m2/capita</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>13.58</v>
+        <v>16</v>
       </c>
       <c r="I77" t="n">
-        <v>14.79</v>
+        <v>17.92</v>
       </c>
       <c r="J77" t="n">
-        <v>0.9181879648411089</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="K77" t="n">
-        <v>329</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4093,36 +4093,36 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>48</v>
+        <v>15.14</v>
       </c>
       <c r="I78" t="n">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="J78" t="n">
-        <v>0.9795918367346939</v>
+        <v>1.009333333333333</v>
       </c>
       <c r="K78" t="n">
-        <v>213</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4140,36 +4140,36 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m2/capita</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>26.38</v>
+        <v>13.58</v>
       </c>
       <c r="I79" t="n">
-        <v>39.94</v>
+        <v>14.79</v>
       </c>
       <c r="J79" t="n">
-        <v>0.6604907361041562</v>
+        <v>0.9181879648411089</v>
       </c>
       <c r="K79" t="n">
-        <v>751</v>
+        <v>329</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4191,32 +4191,32 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>36.18</v>
+        <v>48</v>
       </c>
       <c r="I80" t="n">
-        <v>45.19</v>
+        <v>49</v>
       </c>
       <c r="J80" t="n">
-        <v>0.8006196061075459</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="K80" t="n">
-        <v>856</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4234,36 +4234,36 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>30</v>
+        <v>26.38</v>
       </c>
       <c r="I81" t="n">
-        <v>45.4</v>
+        <v>39.94</v>
       </c>
       <c r="J81" t="n">
-        <v>0.6607929515418502</v>
+        <v>0.6604907361041562</v>
       </c>
       <c r="K81" t="n">
-        <v>232</v>
+        <v>751</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>based on LED</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4281,36 +4281,36 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>32</v>
+        <v>36.18</v>
       </c>
       <c r="I82" t="n">
-        <v>45.4</v>
+        <v>45.19</v>
       </c>
       <c r="J82" t="n">
-        <v>0.7048458149779736</v>
+        <v>0.8006196061075459</v>
       </c>
       <c r="K82" t="n">
-        <v>96</v>
+        <v>856</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4328,36 +4328,36 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>43.43</v>
+        <v>30</v>
       </c>
       <c r="I83" t="n">
-        <v>44.8</v>
+        <v>45.4</v>
       </c>
       <c r="J83" t="n">
-        <v>0.9694196428571429</v>
+        <v>0.6607929515418502</v>
       </c>
       <c r="K83" t="n">
-        <v>15</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>based on LED</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4379,32 +4379,32 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>39.47</v>
+        <v>32</v>
       </c>
       <c r="I84" t="n">
-        <v>41.7</v>
+        <v>45.4</v>
       </c>
       <c r="J84" t="n">
-        <v>0.9465227817745803</v>
+        <v>0.7048458149779736</v>
       </c>
       <c r="K84" t="n">
-        <v>40</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4422,36 +4422,36 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>41.49</v>
+        <v>43.43</v>
       </c>
       <c r="I85" t="n">
-        <v>39.94</v>
+        <v>44.8</v>
       </c>
       <c r="J85" t="n">
-        <v>1.038808212318478</v>
+        <v>0.9694196428571429</v>
       </c>
       <c r="K85" t="n">
-        <v>540</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4473,42 +4473,42 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>41.17</v>
+        <v>39.47</v>
       </c>
       <c r="I86" t="n">
-        <v>45.4</v>
+        <v>41.7</v>
       </c>
       <c r="J86" t="n">
-        <v>0.9068281938325992</v>
+        <v>0.9465227817745803</v>
       </c>
       <c r="K86" t="n">
-        <v>139</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4516,46 +4516,46 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>61.01</v>
+        <v>41.49</v>
       </c>
       <c r="I87" t="n">
-        <v>387</v>
+        <v>39.94</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1576485788113695</v>
+        <v>1.038808212318478</v>
       </c>
       <c r="K87" t="n">
-        <v>225</v>
+        <v>540</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -4563,36 +4563,36 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>260.25</v>
+        <v>41.17</v>
       </c>
       <c r="I88" t="n">
-        <v>347</v>
+        <v>45.4</v>
       </c>
       <c r="J88" t="n">
-        <v>0.75</v>
+        <v>0.9068281938325992</v>
       </c>
       <c r="K88" t="n">
-        <v>765</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4614,32 +4614,32 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>84.09</v>
+        <v>61.01</v>
       </c>
       <c r="I89" t="n">
-        <v>322.42</v>
+        <v>387</v>
       </c>
       <c r="J89" t="n">
-        <v>0.2608088828236462</v>
+        <v>0.1576485788113695</v>
       </c>
       <c r="K89" t="n">
-        <v>862</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4657,36 +4657,36 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>kcal/cap/day</t>
+          <t>kcal meat/cap/day</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>155.01</v>
+        <v>260.25</v>
       </c>
       <c r="I90" t="n">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="J90" t="n">
-        <v>0.4005426356589147</v>
+        <v>0.75</v>
       </c>
       <c r="K90" t="n">
-        <v>49</v>
+        <v>765</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4708,32 +4708,32 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>211.34</v>
+        <v>84.09</v>
       </c>
       <c r="I91" t="n">
-        <v>347</v>
+        <v>322.42</v>
       </c>
       <c r="J91" t="n">
-        <v>0.6090489913544669</v>
+        <v>0.2608088828236462</v>
       </c>
       <c r="K91" t="n">
-        <v>555</v>
+        <v>862</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4751,26 +4751,26 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>kcal/cap/day</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>64.59</v>
+        <v>155.01</v>
       </c>
       <c r="I92" t="n">
-        <v>325</v>
+        <v>387</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1987384615384616</v>
+        <v>0.4005426356589147</v>
       </c>
       <c r="K92" t="n">
-        <v>154</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>van de Ven et al. (2018)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Enthusiastic profile</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4798,36 +4798,36 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>kcal/cap/day</t>
+          <t>kcal meat/cap/day</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>211.34</v>
       </c>
       <c r="I93" t="n">
         <v>347</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>0.6090489913544669</v>
       </c>
       <c r="K93" t="n">
-        <v>371</v>
+        <v>555</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>food waste per capita and year</t>
+          <t>meat consumption per capita and day</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4845,36 +4845,36 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>kg/cap/year</t>
+          <t>kcal meat/cap/day</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>58.95</v>
+        <v>64.59</v>
       </c>
       <c r="I94" t="n">
-        <v>131</v>
+        <v>325</v>
       </c>
       <c r="J94" t="n">
-        <v>0.45</v>
+        <v>0.1987384615384616</v>
       </c>
       <c r="K94" t="n">
-        <v>767</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>van de Ven et al. (2018)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Enthusiastic profile</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>food waste per capita and year</t>
+          <t>meat consumption per capita and day</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4892,26 +4892,26 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>kg/cap/year</t>
+          <t>kcal/cap/day</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>110</v>
+        <v>347</v>
       </c>
       <c r="J95" t="n">
-        <v>0.4181818181818182</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>51</v>
+        <v>371</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4943,62 +4943,156 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>65.5</v>
+        <v>58.95</v>
       </c>
       <c r="I96" t="n">
         <v>131</v>
       </c>
       <c r="J96" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="K96" t="n">
-        <v>557</v>
+        <v>767</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
+          <t>négaWatt (2022)</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>food waste per capita and year</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>kg/cap/year</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>46</v>
+      </c>
+      <c r="I97" t="n">
+        <v>110</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.4181818181818182</v>
+      </c>
+      <c r="K97" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>EU path</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>food waste per capita and year</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>kg/cap/year</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="I98" t="n">
+        <v>131</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
           <t>UBA (2021)</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>GreenSupreme</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>Food</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>food waste per capita and year</t>
         </is>
       </c>
-      <c r="F97" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G97" t="inlineStr">
+      <c r="F99" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G99" t="inlineStr">
         <is>
           <t>kg/cap/year</t>
         </is>
       </c>
-      <c r="H97" t="n">
+      <c r="H99" t="n">
         <v>65.5</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I99" t="n">
         <v>131</v>
       </c>
-      <c r="J97" t="n">
+      <c r="J99" t="n">
         <v>0.5</v>
       </c>
-      <c r="K97" t="n">
+      <c r="K99" t="n">
         <v>151</v>
       </c>
     </row>

--- a/output/boxplot_historic_table.xlsx
+++ b/output/boxplot_historic_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Relative Change</t>
+          <t>Ratio</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -508,12 +508,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -521,46 +521,46 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>41.32</v>
+        <v>5947</v>
       </c>
       <c r="I2" t="n">
-        <v>87.12</v>
+        <v>13007.23</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4742883379247015</v>
+        <v>45.72072608849079</v>
       </c>
       <c r="K2" t="n">
-        <v>219</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barrett et al. (2022)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Transform</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -568,46 +568,46 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>39.6</v>
+        <v>1423.5</v>
       </c>
       <c r="I3" t="n">
-        <v>75.95999999999999</v>
+        <v>3019.91</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5213270142180095</v>
+        <v>47.13716633939422</v>
       </c>
       <c r="K3" t="n">
-        <v>237</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -615,36 +615,36 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>65.16</v>
+        <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>88.2</v>
+        <v>0.26</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7387755102040816</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="K4" t="n">
-        <v>793</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -666,42 +666,42 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>36.78</v>
+        <v>41.32</v>
       </c>
       <c r="I5" t="n">
-        <v>74.36</v>
+        <v>87.12</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4946207638515331</v>
+        <v>47.42883379247015</v>
       </c>
       <c r="K5" t="n">
-        <v>854</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -713,42 +713,42 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>38.83</v>
+        <v>14.46</v>
       </c>
       <c r="I6" t="n">
-        <v>86.61</v>
+        <v>19.99</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4483316014317053</v>
+        <v>72.33616808404203</v>
       </c>
       <c r="K6" t="n">
-        <v>399</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -756,46 +756,46 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H7" t="n">
+        <v>48</v>
+      </c>
+      <c r="I7" t="n">
         <v>49</v>
       </c>
-      <c r="I7" t="n">
-        <v>102.96</v>
-      </c>
       <c r="J7" t="n">
-        <v>0.4759129759129759</v>
+        <v>97.95918367346938</v>
       </c>
       <c r="K7" t="n">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year</t>
+          <t>meat consumption per capita and day</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -803,26 +803,26 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>kcal meat/cap/day</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>59</v>
+        <v>61.01</v>
       </c>
       <c r="I8" t="n">
-        <v>90</v>
+        <v>387</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6555555555555556</v>
+        <v>15.76485788113695</v>
       </c>
       <c r="K8" t="n">
-        <v>22</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -832,17 +832,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -850,46 +850,46 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>48.15</v>
+        <v>12</v>
       </c>
       <c r="I9" t="n">
-        <v>87.12</v>
+        <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5526859504132231</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>47</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year</t>
+          <t>steel production per capita and year</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -897,93 +897,93 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>44.28</v>
+        <v>0.08</v>
       </c>
       <c r="I10" t="n">
-        <v>88.2</v>
+        <v>0.22</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5020408163265306</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="K10" t="n">
-        <v>535</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ragwitz et al. (2023)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nachfrage+Tech</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>60.08</v>
+        <v>2533</v>
       </c>
       <c r="I11" t="n">
-        <v>102.96</v>
+        <v>5091.46</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5835275835275835</v>
+        <v>49.74997348501216</v>
       </c>
       <c r="K11" t="n">
-        <v>439</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>Barrett et al. (2022)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Transform</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -991,36 +991,36 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>54.07</v>
+        <v>0.08</v>
       </c>
       <c r="I12" t="n">
-        <v>102.96</v>
+        <v>0.14</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5251554001554002</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="K12" t="n">
-        <v>106</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>van Sluisveld et al. (2020)</t>
+          <t>Barrett et al. (2022)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Europe+UA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RegChange</t>
+          <t>Transform</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1042,32 +1042,32 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>56.31</v>
+        <v>39.6</v>
       </c>
       <c r="I13" t="n">
-        <v>94.14</v>
+        <v>75.95999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5981516889738687</v>
+        <v>52.13270142180095</v>
       </c>
       <c r="K13" t="n">
-        <v>673</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>Barrett et al. (2022)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>Transform</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>steel production per capita and year</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1085,20 +1085,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>GJ/person/year</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.08</v>
+        <v>13.1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.22</v>
+        <v>13.09</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3636363636363636</v>
+        <v>100.0763941940412</v>
       </c>
       <c r="K14" t="n">
-        <v>205</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15">
@@ -1142,7 +1142,7 @@
         <v>0.11</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5454545454545454</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="K15" t="n">
         <v>249</v>
@@ -1151,27 +1151,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>steel production per capita and year</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1179,46 +1179,46 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.29</v>
+        <v>10450.25</v>
       </c>
       <c r="I16" t="n">
-        <v>0.34</v>
+        <v>15384.99</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8529411764705881</v>
+        <v>67.92497102695549</v>
       </c>
       <c r="K16" t="n">
-        <v>775</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>steel production per capita and year</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1226,20 +1226,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.31</v>
+        <v>5757.71</v>
       </c>
       <c r="I17" t="n">
-        <v>0.32</v>
+        <v>10990.06</v>
       </c>
       <c r="J17" t="n">
-        <v>0.96875</v>
+        <v>52.39015983534212</v>
       </c>
       <c r="K17" t="n">
-        <v>841</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>steel production per capita and year</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1280,39 +1280,39 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2592592592592592</v>
+        <v>20.58823529411765</v>
       </c>
       <c r="K18" t="n">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>steel production per capita and year</t>
+          <t>final energy demand per capita and year</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1320,36 +1320,36 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.16</v>
+        <v>38.83</v>
       </c>
       <c r="I19" t="n">
-        <v>0.22</v>
+        <v>86.61</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7272727272727273</v>
+        <v>44.83316014317053</v>
       </c>
       <c r="K19" t="n">
-        <v>54</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>steel production per capita and year</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1367,36 +1367,36 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.3</v>
+        <v>8.81</v>
       </c>
       <c r="I20" t="n">
-        <v>0.34</v>
+        <v>22.75</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8823529411764705</v>
+        <v>38.72527472527473</v>
       </c>
       <c r="K20" t="n">
-        <v>561</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1418,42 +1418,42 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.18</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8181818181818181</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="K21" t="n">
-        <v>347</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>Climact (2018)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU28</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>steel production per capita and year</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1461,46 +1461,46 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.44</v>
+        <v>5387.3</v>
       </c>
       <c r="I22" t="n">
-        <v>0.48</v>
+        <v>5373.61</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9166666666666667</v>
+        <v>100.2547635574595</v>
       </c>
       <c r="K22" t="n">
-        <v>144</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1508,46 +1508,46 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.06</v>
+        <v>13052.5</v>
       </c>
       <c r="I23" t="n">
-        <v>0.26</v>
+        <v>14915.22</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2307692307692308</v>
+        <v>87.51128042362097</v>
       </c>
       <c r="K23" t="n">
-        <v>209</v>
+        <v>807</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Barrett et al. (2022)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Transform</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1555,20 +1555,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.08</v>
+        <v>1520</v>
       </c>
       <c r="I24" t="n">
-        <v>0.14</v>
+        <v>2487.61</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5714285714285714</v>
+        <v>61.10282560369189</v>
       </c>
       <c r="K24" t="n">
-        <v>253</v>
+        <v>805</v>
       </c>
     </row>
     <row r="25">
@@ -1612,7 +1612,7 @@
         <v>0.37</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4864864864864865</v>
+        <v>48.64864864864865</v>
       </c>
       <c r="K25" t="n">
         <v>771</v>
@@ -1621,27 +1621,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>final energy demand per capita and year</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1649,36 +1649,36 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.19</v>
+        <v>65.16</v>
       </c>
       <c r="I26" t="n">
-        <v>0.34</v>
+        <v>88.2</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5588235294117647</v>
+        <v>73.87755102040816</v>
       </c>
       <c r="K26" t="n">
-        <v>864</v>
+        <v>793</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1696,46 +1696,46 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.07000000000000001</v>
+        <v>14.78</v>
       </c>
       <c r="I27" t="n">
-        <v>0.34</v>
+        <v>24.2</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2058823529411765</v>
+        <v>61.07438016528926</v>
       </c>
       <c r="K27" t="n">
-        <v>419</v>
+        <v>799</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>food waste per capita and year</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1743,26 +1743,26 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>kg/cap/year</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.33</v>
+        <v>58.95</v>
       </c>
       <c r="I28" t="n">
-        <v>0.66</v>
+        <v>131</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5</v>
+        <v>45</v>
       </c>
       <c r="K28" t="n">
-        <v>27</v>
+        <v>767</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1772,17 +1772,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1790,46 +1790,46 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.22</v>
+        <v>26.38</v>
       </c>
       <c r="I29" t="n">
-        <v>0.37</v>
+        <v>39.94</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5945945945945946</v>
+        <v>66.04907361041562</v>
       </c>
       <c r="K29" t="n">
-        <v>559</v>
+        <v>751</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>meat consumption per capita and day</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1837,46 +1837,46 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>kcal meat/cap/day</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.12</v>
+        <v>260.25</v>
       </c>
       <c r="I30" t="n">
-        <v>0.26</v>
+        <v>347</v>
       </c>
       <c r="J30" t="n">
-        <v>0.4615384615384615</v>
+        <v>75</v>
       </c>
       <c r="K30" t="n">
-        <v>350</v>
+        <v>765</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1884,36 +1884,36 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>m2</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.22</v>
+        <v>16.84</v>
       </c>
       <c r="I31" t="n">
-        <v>0.41</v>
+        <v>17.73</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5365853658536586</v>
+        <v>94.98025944726453</v>
       </c>
       <c r="K31" t="n">
-        <v>149</v>
+        <v>763</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>steel production per capita and year</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1931,46 +1931,46 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>14.46</v>
+        <v>0.29</v>
       </c>
       <c r="I32" t="n">
-        <v>19.99</v>
+        <v>0.34</v>
       </c>
       <c r="J32" t="n">
-        <v>0.7233616808404203</v>
+        <v>85.29411764705881</v>
       </c>
       <c r="K32" t="n">
-        <v>221</v>
+        <v>775</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Barrett et al. (2022)</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Transform</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1978,46 +1978,46 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>GJ/person/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>13.1</v>
+        <v>3809.48</v>
       </c>
       <c r="I33" t="n">
-        <v>13.09</v>
+        <v>5667.85</v>
       </c>
       <c r="J33" t="n">
-        <v>1.000763941940412</v>
+        <v>67.21208218283829</v>
       </c>
       <c r="K33" t="n">
-        <v>245</v>
+        <v>783</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2025,20 +2025,20 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>14.78</v>
+        <v>12670.32</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2</v>
+        <v>13195.48</v>
       </c>
       <c r="J34" t="n">
-        <v>0.6107438016528925</v>
+        <v>96.02015235520042</v>
       </c>
       <c r="K34" t="n">
-        <v>799</v>
+        <v>858</v>
       </c>
     </row>
     <row r="35">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2072,36 +2072,36 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>12.89</v>
+        <v>4380.03</v>
       </c>
       <c r="I35" t="n">
-        <v>20.72</v>
+        <v>9453.85</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6221042471042472</v>
+        <v>46.33064836019187</v>
       </c>
       <c r="K35" t="n">
-        <v>855</v>
+        <v>859</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2119,46 +2119,46 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>8.81</v>
+        <v>0.19</v>
       </c>
       <c r="I36" t="n">
-        <v>22.75</v>
+        <v>0.34</v>
       </c>
       <c r="J36" t="n">
-        <v>0.3872527472527473</v>
+        <v>55.88235294117647</v>
       </c>
       <c r="K36" t="n">
-        <v>422</v>
+        <v>864</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>final energy demand per capita and year</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2170,32 +2170,32 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>11.16</v>
+        <v>36.78</v>
       </c>
       <c r="I37" t="n">
-        <v>19.58</v>
+        <v>74.36</v>
       </c>
       <c r="J37" t="n">
-        <v>0.5699693564862105</v>
+        <v>49.46207638515331</v>
       </c>
       <c r="K37" t="n">
-        <v>23</v>
+        <v>854</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2217,42 +2217,42 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>17.72</v>
+        <v>12.89</v>
       </c>
       <c r="I38" t="n">
-        <v>19.99</v>
+        <v>20.72</v>
       </c>
       <c r="J38" t="n">
-        <v>0.8864432216108055</v>
+        <v>62.21042471042472</v>
       </c>
       <c r="K38" t="n">
-        <v>45</v>
+        <v>855</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2260,93 +2260,93 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>15.22</v>
+        <v>36.18</v>
       </c>
       <c r="I39" t="n">
-        <v>24.2</v>
+        <v>45.19</v>
       </c>
       <c r="J39" t="n">
-        <v>0.6289256198347107</v>
+        <v>80.0619606107546</v>
       </c>
       <c r="K39" t="n">
-        <v>537</v>
+        <v>856</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ragwitz et al. (2023)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nachfrage+Tech</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>meat consumption per capita and day</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>kcal meat/cap/day</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>24.47</v>
+        <v>84.09</v>
       </c>
       <c r="I40" t="n">
-        <v>29.12</v>
+        <v>322.42</v>
       </c>
       <c r="J40" t="n">
-        <v>0.840315934065934</v>
+        <v>26.08088828236462</v>
       </c>
       <c r="K40" t="n">
-        <v>438</v>
+        <v>862</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2354,36 +2354,36 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>13.68</v>
+        <v>14.12</v>
       </c>
       <c r="I41" t="n">
-        <v>19.99</v>
+        <v>14.69</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6843421710855428</v>
+        <v>96.11980939414568</v>
       </c>
       <c r="K41" t="n">
-        <v>337</v>
+        <v>857</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>steel production per capita and year</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2401,36 +2401,36 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>18.78</v>
+        <v>0.31</v>
       </c>
       <c r="I42" t="n">
-        <v>31.36</v>
+        <v>0.32</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5988520408163266</v>
+        <v>96.875</v>
       </c>
       <c r="K42" t="n">
-        <v>169</v>
+        <v>841</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2452,42 +2452,42 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>2533</v>
+        <v>5411.16</v>
       </c>
       <c r="I43" t="n">
-        <v>5091.46</v>
+        <v>7217.52</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4974997348501216</v>
+        <v>74.97256675423137</v>
       </c>
       <c r="K43" t="n">
-        <v>212</v>
+        <v>861</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>final energy demand per capita and year</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2495,46 +2495,46 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>3809.48</v>
+        <v>49</v>
       </c>
       <c r="I44" t="n">
-        <v>5667.85</v>
+        <v>102.96</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6721208218283828</v>
+        <v>47.5912975912976</v>
       </c>
       <c r="K44" t="n">
-        <v>783</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2542,46 +2542,46 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>5411.16</v>
+        <v>30</v>
       </c>
       <c r="I45" t="n">
-        <v>7217.52</v>
+        <v>45.4</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7497256675423136</v>
+        <v>66.07929515418502</v>
       </c>
       <c r="K45" t="n">
-        <v>861</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>based on LED</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2589,46 +2589,46 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>5387.3</v>
+        <v>8434.379999999999</v>
       </c>
       <c r="I46" t="n">
-        <v>5373.61</v>
+        <v>11890.63</v>
       </c>
       <c r="J46" t="n">
-        <v>1.002547635574595</v>
+        <v>70.93299513987064</v>
       </c>
       <c r="K46" t="n">
-        <v>408</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>based on LED</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2636,46 +2636,46 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1525</v>
+        <v>32</v>
       </c>
       <c r="I47" t="n">
-        <v>2900.63</v>
+        <v>45.4</v>
       </c>
       <c r="J47" t="n">
-        <v>0.5257478547763762</v>
+        <v>70.48458149779736</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2683,36 +2683,36 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>5291.85</v>
+        <v>12000</v>
       </c>
       <c r="I48" t="n">
-        <v>5667.85</v>
+        <v>15342</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9336609119860264</v>
+        <v>78.21666014861165</v>
       </c>
       <c r="K48" t="n">
-        <v>553</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2730,46 +2730,46 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>5434.78</v>
+        <v>6240</v>
       </c>
       <c r="I49" t="n">
-        <v>5091.46</v>
+        <v>12972.26</v>
       </c>
       <c r="J49" t="n">
-        <v>1.067430560192951</v>
+        <v>48.10264364112344</v>
       </c>
       <c r="K49" t="n">
-        <v>343</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2777,46 +2777,46 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>8122.17</v>
+        <v>0.33</v>
       </c>
       <c r="I50" t="n">
-        <v>8322.120000000001</v>
+        <v>0.66</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9759736701705815</v>
+        <v>50</v>
       </c>
       <c r="K50" t="n">
-        <v>158</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>final energy demand per capita and year</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2824,46 +2824,46 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>5947</v>
+        <v>59</v>
       </c>
       <c r="I51" t="n">
-        <v>13007.23</v>
+        <v>90</v>
       </c>
       <c r="J51" t="n">
-        <v>0.4572072608849079</v>
+        <v>65.55555555555556</v>
       </c>
       <c r="K51" t="n">
-        <v>173</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2871,46 +2871,46 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>4380.03</v>
+        <v>11.16</v>
       </c>
       <c r="I52" t="n">
-        <v>9453.85</v>
+        <v>19.58</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4633064836019187</v>
+        <v>56.99693564862105</v>
       </c>
       <c r="K52" t="n">
-        <v>859</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2918,46 +2918,46 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>5757.71</v>
+        <v>43.43</v>
       </c>
       <c r="I53" t="n">
-        <v>10990.06</v>
+        <v>44.8</v>
       </c>
       <c r="J53" t="n">
-        <v>0.5239015983534212</v>
+        <v>96.94196428571429</v>
       </c>
       <c r="K53" t="n">
-        <v>405</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>Gaur et al. (2022)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>based on LED</t>
+          <t>ILED</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2965,20 +2965,20 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>8434.379999999999</v>
+        <v>16</v>
       </c>
       <c r="I54" t="n">
-        <v>11890.63</v>
+        <v>17.92</v>
       </c>
       <c r="J54" t="n">
-        <v>0.7093299513987064</v>
+        <v>89.28571428571428</v>
       </c>
       <c r="K54" t="n">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
@@ -2999,12 +2999,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -3012,26 +3012,26 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>6240</v>
+        <v>1525</v>
       </c>
       <c r="I55" t="n">
-        <v>12972.26</v>
+        <v>2900.63</v>
       </c>
       <c r="J55" t="n">
-        <v>0.4810264364112344</v>
+        <v>52.57478547763762</v>
       </c>
       <c r="K55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3041,17 +3041,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3059,46 +3059,46 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>7350</v>
+        <v>0.12</v>
       </c>
       <c r="I56" t="n">
-        <v>13007.23</v>
+        <v>0.26</v>
       </c>
       <c r="J56" t="n">
-        <v>0.5650703493364844</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="K56" t="n">
-        <v>33</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -3106,46 +3106,46 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>9214.57</v>
+        <v>13.68</v>
       </c>
       <c r="I57" t="n">
-        <v>10915.01</v>
+        <v>19.99</v>
       </c>
       <c r="J57" t="n">
-        <v>0.8442108619231682</v>
+        <v>68.43421710855428</v>
       </c>
       <c r="K57" t="n">
-        <v>546</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3153,46 +3153,46 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>m2/capita</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>6731</v>
+        <v>13.58</v>
       </c>
       <c r="I58" t="n">
-        <v>11890.63</v>
+        <v>14.79</v>
       </c>
       <c r="J58" t="n">
-        <v>0.5660759774713368</v>
+        <v>91.81879648411089</v>
       </c>
       <c r="K58" t="n">
-        <v>117</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>van de Ven et al. (2018)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Enthusiastic profile</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>steel production per capita and year</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3200,26 +3200,26 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>8783.57</v>
+        <v>0.18</v>
       </c>
       <c r="I59" t="n">
-        <v>10915.01</v>
+        <v>0.22</v>
       </c>
       <c r="J59" t="n">
-        <v>0.8047239535282148</v>
+        <v>81.81818181818181</v>
       </c>
       <c r="K59" t="n">
-        <v>388</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3247,114 +3247,114 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1423.5</v>
+        <v>5434.78</v>
       </c>
       <c r="I60" t="n">
-        <v>3019.91</v>
+        <v>5091.46</v>
       </c>
       <c r="J60" t="n">
-        <v>0.4713716633939422</v>
+        <v>106.7430560192951</v>
       </c>
       <c r="K60" t="n">
-        <v>178</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>Ragwitz et al. (2023)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>Nachfrage+Tech</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>final energy demand per capita and year</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1520</v>
+        <v>60.08</v>
       </c>
       <c r="I61" t="n">
-        <v>2487.61</v>
+        <v>102.96</v>
       </c>
       <c r="J61" t="n">
-        <v>0.6110282560369189</v>
+        <v>58.35275835275835</v>
       </c>
       <c r="K61" t="n">
-        <v>805</v>
+        <v>439</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>Ragwitz et al. (2023)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Nachfrage+Tech</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1200</v>
+        <v>24.47</v>
       </c>
       <c r="I62" t="n">
-        <v>3019.91</v>
+        <v>29.12</v>
       </c>
       <c r="J62" t="n">
-        <v>0.3973628353162843</v>
+        <v>84.0315934065934</v>
       </c>
       <c r="K62" t="n">
-        <v>30</v>
+        <v>438</v>
       </c>
     </row>
     <row r="63">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3392,16 +3392,16 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>6731</v>
       </c>
       <c r="I63" t="n">
-        <v>645.48</v>
+        <v>11890.63</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>56.60759774713367</v>
       </c>
       <c r="K63" t="n">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64">
@@ -3445,7 +3445,7 @@
         <v>2809.29</v>
       </c>
       <c r="J64" t="n">
-        <v>0.9544867208440566</v>
+        <v>95.44867208440566</v>
       </c>
       <c r="K64" t="n">
         <v>124</v>
@@ -3454,27 +3454,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3482,46 +3482,46 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>832.5</v>
+        <v>0.22</v>
       </c>
       <c r="I65" t="n">
-        <v>14915.22</v>
+        <v>0.41</v>
       </c>
       <c r="J65" t="n">
-        <v>0.055815469030963</v>
+        <v>53.65853658536586</v>
       </c>
       <c r="K65" t="n">
-        <v>801</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>final energy demand per capita and year</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3529,46 +3529,46 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>10700</v>
+        <v>54.07</v>
       </c>
       <c r="I66" t="n">
-        <v>14915.22</v>
+        <v>102.96</v>
       </c>
       <c r="J66" t="n">
-        <v>0.7173880103679329</v>
+        <v>52.51554001554002</v>
       </c>
       <c r="K66" t="n">
-        <v>803</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3576,46 +3576,46 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>13052.5</v>
+        <v>18.78</v>
       </c>
       <c r="I67" t="n">
-        <v>14915.22</v>
+        <v>31.36</v>
       </c>
       <c r="J67" t="n">
-        <v>0.8751128042362097</v>
+        <v>59.88520408163266</v>
       </c>
       <c r="K67" t="n">
-        <v>807</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>food waste per capita and year</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3623,46 +3623,46 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>kg/cap/year</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>12670.32</v>
+        <v>65.5</v>
       </c>
       <c r="I68" t="n">
-        <v>13195.48</v>
+        <v>131</v>
       </c>
       <c r="J68" t="n">
-        <v>0.9602015235520042</v>
+        <v>50</v>
       </c>
       <c r="K68" t="n">
-        <v>858</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Climact (2018)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>EU28</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -3670,46 +3670,46 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>10450.25</v>
+        <v>41.17</v>
       </c>
       <c r="I69" t="n">
-        <v>15384.99</v>
+        <v>45.4</v>
       </c>
       <c r="J69" t="n">
-        <v>0.6792497102695549</v>
+        <v>90.68281938325991</v>
       </c>
       <c r="K69" t="n">
-        <v>402</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>meat consumption per capita and day</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3717,46 +3717,46 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>kcal meat/cap/day</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>12000</v>
+        <v>64.59</v>
       </c>
       <c r="I70" t="n">
-        <v>15342</v>
+        <v>325</v>
       </c>
       <c r="J70" t="n">
-        <v>0.7821666014861165</v>
+        <v>19.87384615384616</v>
       </c>
       <c r="K70" t="n">
-        <v>2</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>steel production per capita and year</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3764,46 +3764,46 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>14500</v>
+        <v>0.44</v>
       </c>
       <c r="I71" t="n">
-        <v>18101.66</v>
+        <v>0.48</v>
       </c>
       <c r="J71" t="n">
-        <v>0.8010315076075896</v>
+        <v>91.66666666666667</v>
       </c>
       <c r="K71" t="n">
-        <v>32</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3811,36 +3811,36 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>13803.44</v>
+        <v>8122.17</v>
       </c>
       <c r="I72" t="n">
-        <v>14915.22</v>
+        <v>8322.120000000001</v>
       </c>
       <c r="J72" t="n">
-        <v>0.9254600334423496</v>
+        <v>97.59736701705815</v>
       </c>
       <c r="K72" t="n">
-        <v>543</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3862,22 +3862,22 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>12990.49</v>
+        <v>14500</v>
       </c>
       <c r="I73" t="n">
-        <v>14915.22</v>
+        <v>18101.66</v>
       </c>
       <c r="J73" t="n">
-        <v>0.8709553060564981</v>
+        <v>80.10315076075895</v>
       </c>
       <c r="K73" t="n">
-        <v>544</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3887,17 +3887,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3905,46 +3905,46 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>12</v>
+        <v>7350</v>
       </c>
       <c r="I74" t="n">
-        <v>15</v>
+        <v>13007.23</v>
       </c>
       <c r="J74" t="n">
-        <v>0.8</v>
+        <v>56.50703493364843</v>
       </c>
       <c r="K74" t="n">
-        <v>194</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3952,46 +3952,46 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>m2</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>16.84</v>
+        <v>1200</v>
       </c>
       <c r="I75" t="n">
-        <v>17.73</v>
+        <v>3019.91</v>
       </c>
       <c r="J75" t="n">
-        <v>0.9498025944726453</v>
+        <v>39.73628353162843</v>
       </c>
       <c r="K75" t="n">
-        <v>763</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>final energy demand per capita and year</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -3999,46 +3999,46 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>14.12</v>
+        <v>48.15</v>
       </c>
       <c r="I76" t="n">
-        <v>14.69</v>
+        <v>87.12</v>
       </c>
       <c r="J76" t="n">
-        <v>0.9611980939414567</v>
+        <v>55.26859504132231</v>
       </c>
       <c r="K76" t="n">
-        <v>857</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4046,20 +4046,20 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>16</v>
+        <v>17.72</v>
       </c>
       <c r="I77" t="n">
-        <v>17.92</v>
+        <v>19.99</v>
       </c>
       <c r="J77" t="n">
-        <v>0.8928571428571428</v>
+        <v>88.64432216108055</v>
       </c>
       <c r="K77" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78">
@@ -4080,12 +4080,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>food waste per capita and year</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4093,26 +4093,26 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>kg/cap/year</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>15.14</v>
+        <v>46</v>
       </c>
       <c r="I78" t="n">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="J78" t="n">
-        <v>1.009333333333333</v>
+        <v>41.81818181818181</v>
       </c>
       <c r="K78" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>RTE (2021)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Sufficiency</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4140,26 +4140,26 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>m2/capita</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>13.58</v>
+        <v>39.47</v>
       </c>
       <c r="I79" t="n">
-        <v>14.79</v>
+        <v>41.7</v>
       </c>
       <c r="J79" t="n">
-        <v>0.9181879648411089</v>
+        <v>94.65227817745803</v>
       </c>
       <c r="K79" t="n">
-        <v>329</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4169,17 +4169,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>meat consumption per capita and day</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4187,36 +4187,36 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>kcal/cap/day</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>48</v>
+        <v>155.01</v>
       </c>
       <c r="I80" t="n">
+        <v>387</v>
+      </c>
+      <c r="J80" t="n">
+        <v>40.05426356589147</v>
+      </c>
+      <c r="K80" t="n">
         <v>49</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.9795918367346939</v>
-      </c>
-      <c r="K80" t="n">
-        <v>213</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -4238,42 +4238,42 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>26.38</v>
+        <v>15.14</v>
       </c>
       <c r="I81" t="n">
-        <v>39.94</v>
+        <v>15</v>
       </c>
       <c r="J81" t="n">
-        <v>0.6604907361041562</v>
+        <v>100.9333333333333</v>
       </c>
       <c r="K81" t="n">
-        <v>751</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>steel production per capita and year</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4281,46 +4281,46 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>36.18</v>
+        <v>0.16</v>
       </c>
       <c r="I82" t="n">
-        <v>45.19</v>
+        <v>0.22</v>
       </c>
       <c r="J82" t="n">
-        <v>0.8006196061075459</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="K82" t="n">
-        <v>856</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -4328,46 +4328,46 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>30</v>
+        <v>13803.44</v>
       </c>
       <c r="I83" t="n">
-        <v>45.4</v>
+        <v>14915.22</v>
       </c>
       <c r="J83" t="n">
-        <v>0.6607929515418502</v>
+        <v>92.54600334423496</v>
       </c>
       <c r="K83" t="n">
-        <v>232</v>
+        <v>543</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>based on LED</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -4375,46 +4375,46 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>32</v>
+        <v>9214.57</v>
       </c>
       <c r="I84" t="n">
-        <v>45.4</v>
+        <v>10915.01</v>
       </c>
       <c r="J84" t="n">
-        <v>0.7048458149779736</v>
+        <v>84.42108619231682</v>
       </c>
       <c r="K84" t="n">
-        <v>96</v>
+        <v>546</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Gaur et al. (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ILED</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4422,46 +4422,46 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>43.43</v>
+        <v>0.22</v>
       </c>
       <c r="I85" t="n">
-        <v>44.8</v>
+        <v>0.37</v>
       </c>
       <c r="J85" t="n">
-        <v>0.9694196428571429</v>
+        <v>59.45945945945946</v>
       </c>
       <c r="K85" t="n">
-        <v>15</v>
+        <v>559</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>final energy demand per capita and year</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -4469,20 +4469,20 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>39.47</v>
+        <v>44.28</v>
       </c>
       <c r="I86" t="n">
-        <v>41.7</v>
+        <v>88.2</v>
       </c>
       <c r="J86" t="n">
-        <v>0.9465227817745803</v>
+        <v>50.20408163265306</v>
       </c>
       <c r="K86" t="n">
-        <v>40</v>
+        <v>535</v>
       </c>
     </row>
     <row r="87">
@@ -4503,12 +4503,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4516,46 +4516,46 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>41.49</v>
+        <v>15.22</v>
       </c>
       <c r="I87" t="n">
-        <v>39.94</v>
+        <v>24.2</v>
       </c>
       <c r="J87" t="n">
-        <v>1.038808212318478</v>
+        <v>62.89256198347108</v>
       </c>
       <c r="K87" t="n">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>food waste per capita and year</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -4563,46 +4563,46 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>kg/cap/year</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>41.17</v>
+        <v>65.5</v>
       </c>
       <c r="I88" t="n">
-        <v>45.4</v>
+        <v>131</v>
       </c>
       <c r="J88" t="n">
-        <v>0.9068281938325992</v>
+        <v>50</v>
       </c>
       <c r="K88" t="n">
-        <v>139</v>
+        <v>557</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ADEME (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>S1: Low production</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4610,26 +4610,26 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>61.01</v>
+        <v>41.49</v>
       </c>
       <c r="I89" t="n">
-        <v>387</v>
+        <v>39.94</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1576485788113695</v>
+        <v>103.8808212318478</v>
       </c>
       <c r="K89" t="n">
-        <v>225</v>
+        <v>540</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Climact (2024)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Net Zero 2040</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4661,42 +4661,42 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>260.25</v>
+        <v>211.34</v>
       </c>
       <c r="I90" t="n">
         <v>347</v>
       </c>
       <c r="J90" t="n">
-        <v>0.75</v>
+        <v>60.90489913544669</v>
       </c>
       <c r="K90" t="n">
-        <v>765</v>
+        <v>555</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>steel production per capita and year</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4704,46 +4704,46 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>84.09</v>
+        <v>0.3</v>
       </c>
       <c r="I91" t="n">
-        <v>322.42</v>
+        <v>0.34</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2608088828236462</v>
+        <v>88.23529411764704</v>
       </c>
       <c r="K91" t="n">
-        <v>862</v>
+        <v>561</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>négaWatt (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4751,46 +4751,46 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>kcal/cap/day</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>155.01</v>
+        <v>5291.85</v>
       </c>
       <c r="I92" t="n">
-        <v>387</v>
+        <v>5667.85</v>
       </c>
       <c r="J92" t="n">
-        <v>0.4005426356589147</v>
+        <v>93.36609119860265</v>
       </c>
       <c r="K92" t="n">
-        <v>49</v>
+        <v>553</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>van Sluisveld et al. (2020)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>EU27</t>
+          <t>Europe+UA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>EU path</t>
+          <t>RegChange</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>final energy demand per capita and year</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4798,46 +4798,46 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>211.34</v>
+        <v>56.31</v>
       </c>
       <c r="I93" t="n">
-        <v>347</v>
+        <v>94.14</v>
       </c>
       <c r="J93" t="n">
-        <v>0.6090489913544669</v>
+        <v>59.81516889738687</v>
       </c>
       <c r="K93" t="n">
-        <v>555</v>
+        <v>673</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>van de Ven et al. (2018)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Enthusiastic profile</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>meat consumption per capita and day</t>
+          <t>average distance travelled per capita and year | car</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4845,20 +4845,20 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>kcal meat/cap/day</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>64.59</v>
+        <v>8783.57</v>
       </c>
       <c r="I94" t="n">
-        <v>325</v>
+        <v>10915.01</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1987384615384616</v>
+        <v>80.47239535282148</v>
       </c>
       <c r="K94" t="n">
-        <v>154</v>
+        <v>388</v>
       </c>
     </row>
     <row r="95">
@@ -4906,194 +4906,6 @@
       </c>
       <c r="K95" t="n">
         <v>371</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Climact (2024)</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>EU27</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Net Zero 2040</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>food waste per capita and year</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>kg/cap/year</t>
-        </is>
-      </c>
-      <c r="H96" t="n">
-        <v>58.95</v>
-      </c>
-      <c r="I96" t="n">
-        <v>131</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="K96" t="n">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>négaWatt (2022)</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>2050</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>food waste per capita and year</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>kg/cap/year</t>
-        </is>
-      </c>
-      <c r="H97" t="n">
-        <v>46</v>
-      </c>
-      <c r="I97" t="n">
-        <v>110</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.4181818181818182</v>
-      </c>
-      <c r="K97" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>négaWatt et al. (2023)</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>EU27</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>EU path</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>food waste per capita and year</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>kg/cap/year</t>
-        </is>
-      </c>
-      <c r="H98" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="I98" t="n">
-        <v>131</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K98" t="n">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>UBA (2021)</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>GreenSupreme</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>food waste per capita and year</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>kg/cap/year</t>
-        </is>
-      </c>
-      <c r="H99" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="I99" t="n">
-        <v>131</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K99" t="n">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
